--- a/uds2017info_T5_T5A.xlsx
+++ b/uds2017info_T5_T5A.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="812">
   <si>
     <t xml:space="preserve">BHCMISID</t>
   </si>
@@ -417,6 +417,144 @@
   </si>
   <si>
     <t xml:space="preserve">T5_L34_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L1_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L1_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L2_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L2_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L3_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L3_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L4_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L4_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L5_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L5_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L7_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L7_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L9a_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L9a_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L9b_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L9b_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L10_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L10_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L11_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L11_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L16_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L16_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L17_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L17_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L17a_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L17a_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L20a_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L20a_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L20a1_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L20a1_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L20a2_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L20a2_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L20b_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L20b_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L22a_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L22a_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L22b_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L22b_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L30a1_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L30a1_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L30a2_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L30a2_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L30a3_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L30a3_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L30a4_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L30a4_Cb</t>
   </si>
   <si>
     <t xml:space="preserve">0613350</t>
@@ -3048,118 +3186,256 @@
       <c r="EE1" t="s">
         <v>134</v>
       </c>
+      <c r="EF1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>146</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>147</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>148</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>154</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>155</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>156</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>157</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>158</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>159</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>160</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>161</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>162</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>163</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>167</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>168</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>172</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>175</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>176</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>178</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>179</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="F2" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="G2"/>
       <c r="H2" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="I2" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J2" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="K2" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="L2" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="M2"/>
       <c r="N2" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="O2" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="P2" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="Q2" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="R2"/>
       <c r="S2" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="T2" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="U2" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="V2" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="W2"/>
       <c r="X2" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="Y2" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="Z2" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="AA2" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="AB2"/>
       <c r="AC2" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="AD2" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="AE2" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="AF2" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AG2"/>
       <c r="AH2" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="AI2" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AJ2" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AK2" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AL2" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AM2" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AN2" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="AO2" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AP2" t="n">
         <v>8.92</v>
@@ -3354,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="DB2" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="DC2" t="n">
         <v>0.8</v>
@@ -3396,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="DP2" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="DQ2" t="n">
         <v>13.05</v>
@@ -3411,7 +3687,7 @@
         <v>1389</v>
       </c>
       <c r="DU2" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="DV2" t="n">
         <v>13.6</v>
@@ -3442,117 +3718,255 @@
       </c>
       <c r="EE2" t="n">
         <v>144250</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>8</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>616</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>69</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>31</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>1298</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>3</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>340</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>25</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>1147</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>2</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>65</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>4</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>396</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>2</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>114</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>10</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>206</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>20</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>1164</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>2</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>27</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>189</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>175</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>81</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="F3" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="G3"/>
       <c r="H3" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="I3" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J3" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="K3" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="L3" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="M3"/>
       <c r="N3" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="O3" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="P3" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="Q3" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="R3"/>
       <c r="S3" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="T3" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="U3" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="V3" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="W3"/>
       <c r="X3" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="Y3" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="Z3" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="AA3" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="AB3"/>
       <c r="AC3" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="AD3" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="AE3" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="AF3" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="AG3"/>
       <c r="AH3" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="AI3" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="AJ3" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AK3" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AL3" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AM3" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AN3" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="AO3" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AP3" t="n">
         <v>0.92</v>
@@ -3694,116 +4108,186 @@
       <c r="EE3" t="n">
         <v>7687</v>
       </c>
+      <c r="EF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>61</v>
+      </c>
+      <c r="EH3"/>
+      <c r="EI3"/>
+      <c r="EJ3"/>
+      <c r="EK3"/>
+      <c r="EL3"/>
+      <c r="EM3"/>
+      <c r="EN3"/>
+      <c r="EO3"/>
+      <c r="EP3"/>
+      <c r="EQ3"/>
+      <c r="ER3" t="n">
+        <v>3</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>178</v>
+      </c>
+      <c r="ET3"/>
+      <c r="EU3"/>
+      <c r="EV3"/>
+      <c r="EW3"/>
+      <c r="EX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>35</v>
+      </c>
+      <c r="EZ3"/>
+      <c r="FA3"/>
+      <c r="FB3"/>
+      <c r="FC3"/>
+      <c r="FD3"/>
+      <c r="FE3"/>
+      <c r="FF3"/>
+      <c r="FG3"/>
+      <c r="FH3"/>
+      <c r="FI3"/>
+      <c r="FJ3"/>
+      <c r="FK3"/>
+      <c r="FL3"/>
+      <c r="FM3"/>
+      <c r="FN3"/>
+      <c r="FO3"/>
+      <c r="FP3"/>
+      <c r="FQ3"/>
+      <c r="FR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>35</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>35</v>
+      </c>
+      <c r="FV3"/>
+      <c r="FW3"/>
+      <c r="FX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="B4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" t="s">
         <v>183</v>
-      </c>
-      <c r="C4" t="s">
-        <v>137</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="F4" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="G4"/>
       <c r="H4" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="I4" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J4" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="K4" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="L4" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="M4"/>
       <c r="N4" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="O4" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="P4" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="Q4" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="R4" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="S4" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="T4" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="U4" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="V4" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="Z4" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
       <c r="AA4" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="AB4"/>
       <c r="AC4" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="AD4" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="AE4" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="AF4" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="AG4"/>
       <c r="AH4" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="AI4" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="AJ4" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AK4" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AL4" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AM4" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AN4" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="AO4" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AP4" t="n">
         <v>1.29</v>
@@ -4080,119 +4564,257 @@
       </c>
       <c r="EE4" t="n">
         <v>21499</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG4" t="n">
+        <v>24</v>
+      </c>
+      <c r="EH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>35</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>2</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>186</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>4</v>
+      </c>
+      <c r="ES4" t="n">
+        <v>77</v>
+      </c>
+      <c r="ET4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>6</v>
+      </c>
+      <c r="EY4" t="n">
+        <v>191</v>
+      </c>
+      <c r="EZ4" t="n">
+        <v>4</v>
+      </c>
+      <c r="FA4" t="n">
+        <v>292</v>
+      </c>
+      <c r="FB4" t="n">
+        <v>2</v>
+      </c>
+      <c r="FC4" t="n">
+        <v>171</v>
+      </c>
+      <c r="FD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS4" t="n">
+        <v>253</v>
+      </c>
+      <c r="FT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU4" t="n">
+        <v>253</v>
+      </c>
+      <c r="FV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW4" t="n">
+        <v>10</v>
+      </c>
+      <c r="FX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY4" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="E5" t="s">
-        <v>207</v>
+        <v>253</v>
       </c>
       <c r="F5" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="G5"/>
       <c r="H5" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="I5" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J5" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="K5" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
       <c r="L5" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5" t="s">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c r="P5" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
       <c r="Q5" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="R5"/>
       <c r="S5" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="T5" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="U5" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="V5" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="W5"/>
       <c r="X5" t="s">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="Y5" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="Z5" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="AA5" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="AB5"/>
       <c r="AC5" t="s">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="AD5" t="s">
-        <v>219</v>
+        <v>265</v>
       </c>
       <c r="AE5" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="AF5" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="AG5" t="s">
-        <v>221</v>
+        <v>267</v>
       </c>
       <c r="AH5" t="s">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="AI5" t="s">
-        <v>222</v>
+        <v>268</v>
       </c>
       <c r="AJ5" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AK5" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AL5" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AM5" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AN5" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="AO5" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AP5" t="n">
         <v>0.96</v>
@@ -4381,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="DB5" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="DC5" t="n">
         <v>0.8</v>
@@ -4436,7 +5058,7 @@
         <v>157</v>
       </c>
       <c r="DU5" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="DV5" t="n">
         <v>11.73</v>
@@ -4467,121 +5089,259 @@
       </c>
       <c r="EE5" t="n">
         <v>40034</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>4</v>
+      </c>
+      <c r="EG5" t="n">
+        <v>97</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>37</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>2</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>42</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>24</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>10</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>313</v>
+      </c>
+      <c r="ET5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX5" t="n">
+        <v>15</v>
+      </c>
+      <c r="EY5" t="n">
+        <v>118</v>
+      </c>
+      <c r="EZ5" t="n">
+        <v>6</v>
+      </c>
+      <c r="FA5" t="n">
+        <v>236</v>
+      </c>
+      <c r="FB5" t="n">
+        <v>2</v>
+      </c>
+      <c r="FC5" t="n">
+        <v>37</v>
+      </c>
+      <c r="FD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF5" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG5" t="n">
+        <v>15</v>
+      </c>
+      <c r="FH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI5" t="n">
+        <v>1</v>
+      </c>
+      <c r="FJ5" t="n">
+        <v>3</v>
+      </c>
+      <c r="FK5" t="n">
+        <v>136</v>
+      </c>
+      <c r="FL5" t="n">
+        <v>5</v>
+      </c>
+      <c r="FM5" t="n">
+        <v>63</v>
+      </c>
+      <c r="FN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR5" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS5" t="n">
+        <v>23</v>
+      </c>
+      <c r="FT5" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU5" t="n">
+        <v>9</v>
+      </c>
+      <c r="FV5" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW5" t="n">
+        <v>163</v>
+      </c>
+      <c r="FX5" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY5" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="B6" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>226</v>
+        <v>272</v>
       </c>
       <c r="F6" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
       <c r="G6"/>
       <c r="H6" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="I6" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J6" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
       <c r="K6" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="L6" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="M6" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="N6"/>
       <c r="O6" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="P6" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="Q6" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="R6" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
       <c r="S6" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="T6" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="U6" t="s">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c r="V6" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="W6"/>
       <c r="X6" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="Y6" t="s">
-        <v>238</v>
+        <v>284</v>
       </c>
       <c r="Z6" t="s">
-        <v>239</v>
+        <v>285</v>
       </c>
       <c r="AA6" t="s">
-        <v>240</v>
+        <v>286</v>
       </c>
       <c r="AB6"/>
       <c r="AC6" t="s">
-        <v>241</v>
+        <v>287</v>
       </c>
       <c r="AD6" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="AE6" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
       <c r="AF6" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="AG6" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="AH6" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="AI6" t="s">
-        <v>245</v>
+        <v>291</v>
       </c>
       <c r="AJ6" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AK6" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AL6" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AM6" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AN6" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="AO6" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AP6" t="n">
         <v>0.4</v>
@@ -4858,58 +5618,196 @@
       </c>
       <c r="EE6" t="n">
         <v>27221</v>
+      </c>
+      <c r="EF6" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>107</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER6" t="n">
+        <v>8</v>
+      </c>
+      <c r="ES6" t="n">
+        <v>392</v>
+      </c>
+      <c r="ET6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX6" t="n">
+        <v>10</v>
+      </c>
+      <c r="EY6" t="n">
+        <v>660</v>
+      </c>
+      <c r="EZ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA6" t="n">
+        <v>78</v>
+      </c>
+      <c r="FB6" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC6" t="n">
+        <v>57</v>
+      </c>
+      <c r="FD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR6" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS6" t="n">
+        <v>38</v>
+      </c>
+      <c r="FT6" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU6" t="n">
+        <v>107</v>
+      </c>
+      <c r="FV6" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW6" t="n">
+        <v>384</v>
+      </c>
+      <c r="FX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>246</v>
+        <v>292</v>
       </c>
       <c r="B7" t="s">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="E7" t="s">
-        <v>248</v>
+        <v>294</v>
       </c>
       <c r="F7" t="s">
-        <v>249</v>
+        <v>295</v>
       </c>
       <c r="G7"/>
       <c r="H7" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="I7" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J7" t="s">
-        <v>251</v>
+        <v>297</v>
       </c>
       <c r="K7" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="L7" t="s">
-        <v>253</v>
+        <v>299</v>
       </c>
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="P7" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="Q7" t="s">
-        <v>253</v>
+        <v>299</v>
       </c>
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="U7"/>
       <c r="V7"/>
@@ -4922,33 +5820,33 @@
       <c r="AC7"/>
       <c r="AD7"/>
       <c r="AE7" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="AF7" t="s">
-        <v>253</v>
+        <v>299</v>
       </c>
       <c r="AG7"/>
       <c r="AH7"/>
       <c r="AI7" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="AJ7" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AK7" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AL7" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AM7" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AN7" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="AO7" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AP7"/>
       <c r="AQ7"/>
@@ -5092,122 +5990,192 @@
       <c r="EE7" t="n">
         <v>4892</v>
       </c>
+      <c r="EF7"/>
+      <c r="EG7"/>
+      <c r="EH7" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI7" t="n">
+        <v>21</v>
+      </c>
+      <c r="EJ7"/>
+      <c r="EK7"/>
+      <c r="EL7" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>12</v>
+      </c>
+      <c r="EN7"/>
+      <c r="EO7"/>
+      <c r="EP7"/>
+      <c r="EQ7"/>
+      <c r="ER7" t="n">
+        <v>2</v>
+      </c>
+      <c r="ES7" t="n">
+        <v>13</v>
+      </c>
+      <c r="ET7"/>
+      <c r="EU7"/>
+      <c r="EV7"/>
+      <c r="EW7"/>
+      <c r="EX7"/>
+      <c r="EY7"/>
+      <c r="EZ7"/>
+      <c r="FA7"/>
+      <c r="FB7"/>
+      <c r="FC7"/>
+      <c r="FD7"/>
+      <c r="FE7"/>
+      <c r="FF7"/>
+      <c r="FG7"/>
+      <c r="FH7"/>
+      <c r="FI7"/>
+      <c r="FJ7"/>
+      <c r="FK7"/>
+      <c r="FL7"/>
+      <c r="FM7"/>
+      <c r="FN7"/>
+      <c r="FO7"/>
+      <c r="FP7"/>
+      <c r="FQ7"/>
+      <c r="FR7" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS7" t="n">
+        <v>15</v>
+      </c>
+      <c r="FT7" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU7" t="n">
+        <v>21</v>
+      </c>
+      <c r="FV7" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW7" t="n">
+        <v>15</v>
+      </c>
+      <c r="FX7"/>
+      <c r="FY7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>255</v>
+        <v>301</v>
       </c>
       <c r="B8" t="s">
-        <v>256</v>
+        <v>302</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="E8" t="s">
-        <v>257</v>
+        <v>303</v>
       </c>
       <c r="F8" t="s">
-        <v>258</v>
+        <v>304</v>
       </c>
       <c r="G8"/>
       <c r="H8" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="I8" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J8" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="K8" t="s">
-        <v>261</v>
+        <v>307</v>
       </c>
       <c r="L8" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="M8"/>
       <c r="N8" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="O8" t="s">
-        <v>264</v>
+        <v>310</v>
       </c>
       <c r="P8" t="s">
-        <v>261</v>
+        <v>307</v>
       </c>
       <c r="Q8" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="R8" t="s">
-        <v>266</v>
+        <v>312</v>
       </c>
       <c r="S8" t="s">
-        <v>267</v>
+        <v>313</v>
       </c>
       <c r="T8" t="s">
-        <v>264</v>
+        <v>310</v>
       </c>
       <c r="U8" t="s">
-        <v>268</v>
+        <v>314</v>
       </c>
       <c r="V8" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="W8" t="s">
-        <v>269</v>
+        <v>315</v>
       </c>
       <c r="X8"/>
       <c r="Y8" t="s">
-        <v>264</v>
+        <v>310</v>
       </c>
       <c r="Z8" t="s">
-        <v>270</v>
+        <v>316</v>
       </c>
       <c r="AA8" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="AB8" t="s">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="AC8"/>
       <c r="AD8" t="s">
-        <v>272</v>
+        <v>318</v>
       </c>
       <c r="AE8" t="s">
-        <v>273</v>
+        <v>319</v>
       </c>
       <c r="AF8" t="s">
-        <v>274</v>
+        <v>320</v>
       </c>
       <c r="AG8" t="s">
-        <v>275</v>
+        <v>321</v>
       </c>
       <c r="AH8" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="AI8" t="s">
-        <v>276</v>
+        <v>322</v>
       </c>
       <c r="AJ8" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AK8" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AL8" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AM8" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AN8" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="AO8" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AP8" t="n">
         <v>2.9</v>
@@ -5453,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="DU8" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="DV8" t="n">
         <v>5.6</v>
@@ -5484,127 +6452,265 @@
       </c>
       <c r="EE8" t="n">
         <v>44081</v>
+      </c>
+      <c r="EF8" t="n">
+        <v>2</v>
+      </c>
+      <c r="EG8" t="n">
+        <v>102</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN8" t="n">
+        <v>2</v>
+      </c>
+      <c r="EO8" t="n">
+        <v>46</v>
+      </c>
+      <c r="EP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER8" t="n">
+        <v>10</v>
+      </c>
+      <c r="ES8" t="n">
+        <v>197</v>
+      </c>
+      <c r="ET8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX8" t="n">
+        <v>13</v>
+      </c>
+      <c r="EY8" t="n">
+        <v>484</v>
+      </c>
+      <c r="EZ8" t="n">
+        <v>5</v>
+      </c>
+      <c r="FA8" t="n">
+        <v>271</v>
+      </c>
+      <c r="FB8" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC8" t="n">
+        <v>185</v>
+      </c>
+      <c r="FD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF8" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG8" t="n">
+        <v>17</v>
+      </c>
+      <c r="FH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ8" t="n">
+        <v>2</v>
+      </c>
+      <c r="FK8" t="n">
+        <v>23</v>
+      </c>
+      <c r="FL8" t="n">
+        <v>2</v>
+      </c>
+      <c r="FM8" t="n">
+        <v>45</v>
+      </c>
+      <c r="FN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR8" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS8" t="n">
+        <v>247</v>
+      </c>
+      <c r="FT8" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU8" t="n">
+        <v>275</v>
+      </c>
+      <c r="FV8" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW8" t="n">
+        <v>13</v>
+      </c>
+      <c r="FX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>278</v>
+        <v>324</v>
       </c>
       <c r="B9" t="s">
-        <v>279</v>
+        <v>325</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="E9" t="s">
-        <v>280</v>
+        <v>326</v>
       </c>
       <c r="F9" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="G9"/>
       <c r="H9" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="I9" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J9" t="s">
-        <v>282</v>
+        <v>328</v>
       </c>
       <c r="K9" t="s">
-        <v>283</v>
+        <v>329</v>
       </c>
       <c r="L9" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="M9" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="N9" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
       <c r="O9" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="P9" t="s">
-        <v>288</v>
+        <v>334</v>
       </c>
       <c r="Q9" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="R9" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="S9" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
       <c r="T9" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="U9" t="s">
-        <v>289</v>
+        <v>335</v>
       </c>
       <c r="V9" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="W9"/>
       <c r="X9" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
       <c r="Y9" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="Z9" t="s">
-        <v>291</v>
+        <v>337</v>
       </c>
       <c r="AA9" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="AB9" t="s">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="AC9" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
       <c r="AD9" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
       <c r="AE9" t="s">
-        <v>288</v>
+        <v>334</v>
       </c>
       <c r="AF9" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="AG9" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="AH9" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
       <c r="AI9" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="AJ9" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AK9" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AL9" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AM9" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AN9" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="AO9" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AP9" t="n">
         <v>1.17</v>
@@ -5797,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="DB9" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="DC9" t="n">
         <v>1</v>
@@ -5881,62 +6987,200 @@
       </c>
       <c r="EE9" t="n">
         <v>36434</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>2</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>145</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>2</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>303</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>3</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>173</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>72</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>2</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>25</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ9" t="n">
+        <v>161</v>
+      </c>
+      <c r="ER9" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>107</v>
+      </c>
+      <c r="ET9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>4</v>
+      </c>
+      <c r="EY9" t="n">
+        <v>146</v>
+      </c>
+      <c r="EZ9" t="n">
+        <v>6</v>
+      </c>
+      <c r="FA9" t="n">
+        <v>172</v>
+      </c>
+      <c r="FB9" t="n">
+        <v>2</v>
+      </c>
+      <c r="FC9" t="n">
+        <v>76</v>
+      </c>
+      <c r="FD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF9" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG9" t="n">
+        <v>148</v>
+      </c>
+      <c r="FH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ9" t="n">
+        <v>5</v>
+      </c>
+      <c r="FK9" t="n">
+        <v>321</v>
+      </c>
+      <c r="FL9" t="n">
+        <v>4</v>
+      </c>
+      <c r="FM9" t="n">
+        <v>191</v>
+      </c>
+      <c r="FN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR9" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS9" t="n">
+        <v>305</v>
+      </c>
+      <c r="FT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV9" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW9" t="n">
+        <v>19</v>
+      </c>
+      <c r="FX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="B10" t="s">
-        <v>295</v>
+        <v>341</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="E10" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="F10" t="s">
-        <v>297</v>
+        <v>343</v>
       </c>
       <c r="G10"/>
       <c r="H10" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="I10" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J10" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="K10" t="s">
-        <v>298</v>
+        <v>344</v>
       </c>
       <c r="L10" t="s">
-        <v>299</v>
+        <v>345</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="s">
-        <v>299</v>
+        <v>345</v>
       </c>
       <c r="O10" t="s">
-        <v>300</v>
+        <v>346</v>
       </c>
       <c r="P10" t="s">
-        <v>301</v>
+        <v>347</v>
       </c>
       <c r="Q10" t="s">
-        <v>299</v>
+        <v>345</v>
       </c>
       <c r="R10"/>
       <c r="S10" t="s">
-        <v>302</v>
+        <v>348</v>
       </c>
       <c r="T10" t="s">
-        <v>300</v>
+        <v>346</v>
       </c>
       <c r="U10"/>
       <c r="V10"/>
@@ -5949,37 +7193,37 @@
       <c r="AC10"/>
       <c r="AD10"/>
       <c r="AE10" t="s">
-        <v>303</v>
+        <v>349</v>
       </c>
       <c r="AF10" t="s">
-        <v>304</v>
+        <v>350</v>
       </c>
       <c r="AG10" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="AH10" t="s">
-        <v>302</v>
+        <v>348</v>
       </c>
       <c r="AI10" t="s">
-        <v>306</v>
+        <v>352</v>
       </c>
       <c r="AJ10" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AK10" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AL10" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AM10" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AN10" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="AO10" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AP10" t="n">
         <v>1</v>
@@ -6256,109 +7500,247 @@
       </c>
       <c r="EE10" t="n">
         <v>16516</v>
+      </c>
+      <c r="EF10" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>17</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ10" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK10" t="n">
+        <v>37</v>
+      </c>
+      <c r="EL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN10" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO10" t="n">
+        <v>9</v>
+      </c>
+      <c r="EP10" t="n">
+        <v>2</v>
+      </c>
+      <c r="EQ10" t="n">
+        <v>64</v>
+      </c>
+      <c r="ER10" t="n">
+        <v>2</v>
+      </c>
+      <c r="ES10" t="n">
+        <v>31</v>
+      </c>
+      <c r="ET10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX10" t="n">
+        <v>6</v>
+      </c>
+      <c r="EY10" t="n">
+        <v>118</v>
+      </c>
+      <c r="EZ10" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA10" t="n">
+        <v>17</v>
+      </c>
+      <c r="FB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ10" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK10" t="n">
+        <v>12</v>
+      </c>
+      <c r="FL10" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM10" t="n">
+        <v>17</v>
+      </c>
+      <c r="FN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR10" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS10" t="n">
+        <v>254</v>
+      </c>
+      <c r="FT10" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU10" t="n">
+        <v>37</v>
+      </c>
+      <c r="FV10" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW10" t="n">
+        <v>6</v>
+      </c>
+      <c r="FX10" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY10" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>307</v>
+        <v>353</v>
       </c>
       <c r="B11" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="E11" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="F11" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="G11"/>
       <c r="H11" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="I11" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J11" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="K11" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="L11" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="P11" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="Q11" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="R11"/>
       <c r="S11"/>
       <c r="T11" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="U11" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="V11" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="W11"/>
       <c r="X11"/>
       <c r="Y11" t="s">
-        <v>319</v>
+        <v>365</v>
       </c>
       <c r="Z11" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="AA11" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="AB11"/>
       <c r="AC11"/>
       <c r="AD11" t="s">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="AE11" t="s">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="AF11" t="s">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="AG11"/>
       <c r="AH11"/>
       <c r="AI11" t="s">
-        <v>324</v>
+        <v>370</v>
       </c>
       <c r="AJ11" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AK11" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AL11" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AM11" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AN11" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="AO11" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AP11" t="n">
         <v>1</v>
@@ -6636,124 +8018,214 @@
       <c r="EE11" t="n">
         <v>29603</v>
       </c>
+      <c r="EF11"/>
+      <c r="EG11"/>
+      <c r="EH11"/>
+      <c r="EI11"/>
+      <c r="EJ11" t="n">
+        <v>2</v>
+      </c>
+      <c r="EK11" t="n">
+        <v>91</v>
+      </c>
+      <c r="EL11"/>
+      <c r="EM11"/>
+      <c r="EN11"/>
+      <c r="EO11"/>
+      <c r="EP11"/>
+      <c r="EQ11"/>
+      <c r="ER11" t="n">
+        <v>6</v>
+      </c>
+      <c r="ES11" t="n">
+        <v>233</v>
+      </c>
+      <c r="ET11"/>
+      <c r="EU11"/>
+      <c r="EV11"/>
+      <c r="EW11"/>
+      <c r="EX11" t="n">
+        <v>14</v>
+      </c>
+      <c r="EY11" t="n">
+        <v>421</v>
+      </c>
+      <c r="EZ11" t="n">
+        <v>4</v>
+      </c>
+      <c r="FA11" t="n">
+        <v>92</v>
+      </c>
+      <c r="FB11" t="n">
+        <v>2</v>
+      </c>
+      <c r="FC11" t="n">
+        <v>25</v>
+      </c>
+      <c r="FD11"/>
+      <c r="FE11"/>
+      <c r="FF11" t="n">
+        <v>2</v>
+      </c>
+      <c r="FG11" t="n">
+        <v>24</v>
+      </c>
+      <c r="FH11"/>
+      <c r="FI11"/>
+      <c r="FJ11" t="n">
+        <v>2</v>
+      </c>
+      <c r="FK11" t="n">
+        <v>67</v>
+      </c>
+      <c r="FL11" t="n">
+        <v>5</v>
+      </c>
+      <c r="FM11" t="n">
+        <v>151</v>
+      </c>
+      <c r="FN11"/>
+      <c r="FO11"/>
+      <c r="FP11"/>
+      <c r="FQ11"/>
+      <c r="FR11" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS11" t="n">
+        <v>65</v>
+      </c>
+      <c r="FT11" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU11" t="n">
+        <v>63</v>
+      </c>
+      <c r="FV11" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW11" t="n">
+        <v>9</v>
+      </c>
+      <c r="FX11"/>
+      <c r="FY11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>325</v>
+        <v>371</v>
       </c>
       <c r="B12" t="s">
-        <v>326</v>
+        <v>372</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="E12" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="F12" t="s">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="G12"/>
       <c r="H12" t="s">
-        <v>329</v>
+        <v>375</v>
       </c>
       <c r="I12" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J12" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="K12" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="L12" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="M12" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="N12" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="O12" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="P12" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="Q12" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="R12" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="S12" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="T12" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="U12" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="V12" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="W12"/>
       <c r="X12" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="Y12" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="Z12" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
       <c r="AA12" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="AB12"/>
       <c r="AC12" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="AD12" t="s">
-        <v>340</v>
+        <v>386</v>
       </c>
       <c r="AE12" t="s">
-        <v>341</v>
+        <v>387</v>
       </c>
       <c r="AF12" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="AG12" t="s">
-        <v>342</v>
+        <v>388</v>
       </c>
       <c r="AH12" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="AI12" t="s">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="AJ12" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AK12" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AL12" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AM12" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AN12" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="AO12" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AP12" t="n">
         <v>2.53</v>
@@ -7030,123 +8502,261 @@
       </c>
       <c r="EE12" t="n">
         <v>90087</v>
+      </c>
+      <c r="EF12" t="n">
+        <v>3</v>
+      </c>
+      <c r="EG12" t="n">
+        <v>135</v>
+      </c>
+      <c r="EH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ12" t="n">
+        <v>2</v>
+      </c>
+      <c r="EK12" t="n">
+        <v>207</v>
+      </c>
+      <c r="EL12" t="n">
+        <v>3</v>
+      </c>
+      <c r="EM12" t="n">
+        <v>91</v>
+      </c>
+      <c r="EN12" t="n">
+        <v>2</v>
+      </c>
+      <c r="EO12" t="n">
+        <v>60</v>
+      </c>
+      <c r="EP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER12" t="n">
+        <v>11</v>
+      </c>
+      <c r="ES12" t="n">
+        <v>657</v>
+      </c>
+      <c r="ET12" t="n">
+        <v>2</v>
+      </c>
+      <c r="EU12" t="n">
+        <v>99</v>
+      </c>
+      <c r="EV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX12" t="n">
+        <v>19</v>
+      </c>
+      <c r="EY12" t="n">
+        <v>1103</v>
+      </c>
+      <c r="EZ12" t="n">
+        <v>7</v>
+      </c>
+      <c r="FA12" t="n">
+        <v>521</v>
+      </c>
+      <c r="FB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF12" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG12" t="n">
+        <v>158</v>
+      </c>
+      <c r="FH12" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI12" t="n">
+        <v>8</v>
+      </c>
+      <c r="FJ12" t="n">
+        <v>3</v>
+      </c>
+      <c r="FK12" t="n">
+        <v>186</v>
+      </c>
+      <c r="FL12" t="n">
+        <v>6</v>
+      </c>
+      <c r="FM12" t="n">
+        <v>467</v>
+      </c>
+      <c r="FN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR12" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS12" t="n">
+        <v>190</v>
+      </c>
+      <c r="FT12" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU12" t="n">
+        <v>185</v>
+      </c>
+      <c r="FV12" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW12" t="n">
+        <v>30</v>
+      </c>
+      <c r="FX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>344</v>
+        <v>390</v>
       </c>
       <c r="B13" t="s">
-        <v>345</v>
+        <v>391</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>346</v>
+        <v>392</v>
       </c>
       <c r="F13" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
       <c r="G13"/>
       <c r="H13" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J13" t="s">
-        <v>349</v>
+        <v>395</v>
       </c>
       <c r="K13" t="s">
-        <v>350</v>
+        <v>396</v>
       </c>
       <c r="L13" t="s">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="O13" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="P13" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="Q13" t="s">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="R13" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
       <c r="S13" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="T13" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="U13" t="s">
-        <v>356</v>
+        <v>402</v>
       </c>
       <c r="V13" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="W13"/>
       <c r="X13" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="Y13" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="Z13" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="AA13" t="s">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="AB13" t="s">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="AC13" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="AD13" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="AE13" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="AF13" t="s">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="AG13" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
       <c r="AH13" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="AI13" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="AJ13" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AK13" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AL13" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AM13" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AN13" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="AO13" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AP13" t="n">
         <v>1.5</v>
@@ -7341,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="DB13" t="s">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="DC13" t="n">
         <v>0.1</v>
@@ -7425,115 +9035,253 @@
       </c>
       <c r="EE13" t="n">
         <v>27941</v>
+      </c>
+      <c r="EF13" t="n">
+        <v>2</v>
+      </c>
+      <c r="EG13" t="n">
+        <v>12</v>
+      </c>
+      <c r="EH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER13" t="n">
+        <v>7</v>
+      </c>
+      <c r="ES13" t="n">
+        <v>306</v>
+      </c>
+      <c r="ET13" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU13" t="n">
+        <v>18</v>
+      </c>
+      <c r="EV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX13" t="n">
+        <v>13</v>
+      </c>
+      <c r="EY13" t="n">
+        <v>356</v>
+      </c>
+      <c r="EZ13" t="n">
+        <v>3</v>
+      </c>
+      <c r="FA13" t="n">
+        <v>83</v>
+      </c>
+      <c r="FB13" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC13" t="n">
+        <v>123</v>
+      </c>
+      <c r="FD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ13" t="n">
+        <v>4</v>
+      </c>
+      <c r="FK13" t="n">
+        <v>88</v>
+      </c>
+      <c r="FL13" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM13" t="n">
+        <v>5</v>
+      </c>
+      <c r="FN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR13" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS13" t="n">
+        <v>68</v>
+      </c>
+      <c r="FT13" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU13" t="n">
+        <v>6</v>
+      </c>
+      <c r="FV13" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW13" t="n">
+        <v>34</v>
+      </c>
+      <c r="FX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="B14" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="E14" t="s">
-        <v>365</v>
+        <v>411</v>
       </c>
       <c r="F14" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="G14"/>
       <c r="H14" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="I14" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J14" t="s">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="K14" t="s">
-        <v>369</v>
+        <v>415</v>
       </c>
       <c r="L14" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="M14"/>
       <c r="N14" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="O14" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="P14" t="s">
-        <v>369</v>
+        <v>415</v>
       </c>
       <c r="Q14" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="R14"/>
       <c r="S14"/>
       <c r="T14" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="U14" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="V14" t="s">
-        <v>374</v>
+        <v>420</v>
       </c>
       <c r="W14"/>
       <c r="X14"/>
       <c r="Y14" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="Z14" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="AA14" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="AB14"/>
       <c r="AC14" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="AD14" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="AE14" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="AF14" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="AG14"/>
       <c r="AH14" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="AI14" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="AJ14" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AK14" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AL14" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AM14" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AN14" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="AO14" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AP14"/>
       <c r="AQ14"/>
@@ -7676,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="DB14" t="s">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="DC14" t="n">
         <v>1</v>
@@ -7704,7 +9452,7 @@
       <c r="DN14"/>
       <c r="DO14"/>
       <c r="DP14" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="DQ14" t="n">
         <v>4</v>
@@ -7743,112 +9491,202 @@
       <c r="EE14" t="n">
         <v>25815</v>
       </c>
+      <c r="EF14"/>
+      <c r="EG14"/>
+      <c r="EH14" t="n">
+        <v>2</v>
+      </c>
+      <c r="EI14" t="n">
+        <v>195</v>
+      </c>
+      <c r="EJ14" t="n">
+        <v>3</v>
+      </c>
+      <c r="EK14" t="n">
+        <v>101</v>
+      </c>
+      <c r="EL14" t="n">
+        <v>4</v>
+      </c>
+      <c r="EM14" t="n">
+        <v>82</v>
+      </c>
+      <c r="EN14" t="n">
+        <v>2</v>
+      </c>
+      <c r="EO14" t="n">
+        <v>83</v>
+      </c>
+      <c r="EP14"/>
+      <c r="EQ14"/>
+      <c r="ER14" t="n">
+        <v>5</v>
+      </c>
+      <c r="ES14" t="n">
+        <v>404</v>
+      </c>
+      <c r="ET14"/>
+      <c r="EU14"/>
+      <c r="EV14"/>
+      <c r="EW14"/>
+      <c r="EX14" t="n">
+        <v>5</v>
+      </c>
+      <c r="EY14" t="n">
+        <v>256</v>
+      </c>
+      <c r="EZ14" t="n">
+        <v>4</v>
+      </c>
+      <c r="FA14" t="n">
+        <v>114</v>
+      </c>
+      <c r="FB14"/>
+      <c r="FC14"/>
+      <c r="FD14"/>
+      <c r="FE14"/>
+      <c r="FF14"/>
+      <c r="FG14"/>
+      <c r="FH14"/>
+      <c r="FI14"/>
+      <c r="FJ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK14" t="n">
+        <v>15</v>
+      </c>
+      <c r="FL14"/>
+      <c r="FM14"/>
+      <c r="FN14"/>
+      <c r="FO14"/>
+      <c r="FP14"/>
+      <c r="FQ14"/>
+      <c r="FR14" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS14" t="n">
+        <v>64</v>
+      </c>
+      <c r="FT14" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU14" t="n">
+        <v>64</v>
+      </c>
+      <c r="FV14" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW14" t="n">
+        <v>41</v>
+      </c>
+      <c r="FX14"/>
+      <c r="FY14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="B15" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="F15" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="G15"/>
       <c r="H15" t="s">
-        <v>388</v>
+        <v>434</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J15" t="s">
-        <v>389</v>
+        <v>435</v>
       </c>
       <c r="K15" t="s">
-        <v>390</v>
+        <v>436</v>
       </c>
       <c r="L15" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="M15" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
       <c r="N15" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="O15" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="P15" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="Q15" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="R15"/>
       <c r="S15"/>
       <c r="T15" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="U15" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="V15" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="W15"/>
       <c r="X15"/>
       <c r="Y15" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="Z15" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="AA15" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="AB15"/>
       <c r="AC15"/>
       <c r="AD15" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="AE15" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="AF15" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="AG15"/>
       <c r="AH15" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="AI15" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="AJ15" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AK15" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AL15" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AM15" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AN15" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="AO15" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AP15" t="n">
         <v>1.03</v>
@@ -8122,61 +9960,143 @@
       <c r="EE15" t="n">
         <v>48221</v>
       </c>
+      <c r="EF15" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG15" t="n">
+        <v>3</v>
+      </c>
+      <c r="EH15"/>
+      <c r="EI15"/>
+      <c r="EJ15"/>
+      <c r="EK15"/>
+      <c r="EL15"/>
+      <c r="EM15"/>
+      <c r="EN15"/>
+      <c r="EO15"/>
+      <c r="EP15"/>
+      <c r="EQ15"/>
+      <c r="ER15" t="n">
+        <v>3</v>
+      </c>
+      <c r="ES15" t="n">
+        <v>142</v>
+      </c>
+      <c r="ET15"/>
+      <c r="EU15"/>
+      <c r="EV15"/>
+      <c r="EW15"/>
+      <c r="EX15" t="n">
+        <v>4</v>
+      </c>
+      <c r="EY15" t="n">
+        <v>48</v>
+      </c>
+      <c r="EZ15"/>
+      <c r="FA15"/>
+      <c r="FB15"/>
+      <c r="FC15"/>
+      <c r="FD15"/>
+      <c r="FE15"/>
+      <c r="FF15" t="n">
+        <v>8</v>
+      </c>
+      <c r="FG15" t="n">
+        <v>714</v>
+      </c>
+      <c r="FH15"/>
+      <c r="FI15"/>
+      <c r="FJ15" t="n">
+        <v>8</v>
+      </c>
+      <c r="FK15" t="n">
+        <v>838</v>
+      </c>
+      <c r="FL15" t="n">
+        <v>7</v>
+      </c>
+      <c r="FM15" t="n">
+        <v>300</v>
+      </c>
+      <c r="FN15"/>
+      <c r="FO15"/>
+      <c r="FP15"/>
+      <c r="FQ15"/>
+      <c r="FR15" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS15" t="n">
+        <v>292</v>
+      </c>
+      <c r="FT15" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU15" t="n">
+        <v>261</v>
+      </c>
+      <c r="FV15" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW15" t="n">
+        <v>3</v>
+      </c>
+      <c r="FX15"/>
+      <c r="FY15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
       <c r="B16" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D16" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="E16" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="F16" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="G16"/>
       <c r="H16" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="I16" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J16" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="K16" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="L16" t="s">
-        <v>409</v>
+        <v>455</v>
       </c>
       <c r="M16"/>
       <c r="N16" t="s">
-        <v>410</v>
+        <v>456</v>
       </c>
       <c r="O16" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="P16" t="s">
-        <v>412</v>
+        <v>458</v>
       </c>
       <c r="Q16" t="s">
-        <v>409</v>
+        <v>455</v>
       </c>
       <c r="R16"/>
       <c r="S16" t="s">
-        <v>410</v>
+        <v>456</v>
       </c>
       <c r="T16" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="U16"/>
       <c r="V16"/>
@@ -8184,48 +10104,48 @@
       <c r="X16"/>
       <c r="Y16"/>
       <c r="Z16" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="AA16" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="AB16" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="AC16"/>
       <c r="AD16" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="AE16" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="AF16" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="AG16"/>
       <c r="AH16" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="AI16" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="AJ16" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AK16" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AL16" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AM16" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AN16" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="AO16" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AP16" t="n">
         <v>9.54</v>
@@ -8420,7 +10340,7 @@
         <v>0</v>
       </c>
       <c r="DB16" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="DC16" t="n">
         <v>0.25</v>
@@ -8504,64 +10424,202 @@
       </c>
       <c r="EE16" t="n">
         <v>169392</v>
+      </c>
+      <c r="EF16" t="n">
+        <v>12</v>
+      </c>
+      <c r="EG16" t="n">
+        <v>784</v>
+      </c>
+      <c r="EH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ16" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK16" t="n">
+        <v>4</v>
+      </c>
+      <c r="EL16" t="n">
+        <v>4</v>
+      </c>
+      <c r="EM16" t="n">
+        <v>178</v>
+      </c>
+      <c r="EN16" t="n">
+        <v>16</v>
+      </c>
+      <c r="EO16" t="n">
+        <v>517</v>
+      </c>
+      <c r="EP16" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ16" t="n">
+        <v>3</v>
+      </c>
+      <c r="ER16" t="n">
+        <v>18</v>
+      </c>
+      <c r="ES16" t="n">
+        <v>729</v>
+      </c>
+      <c r="ET16" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU16" t="n">
+        <v>22</v>
+      </c>
+      <c r="EV16" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW16" t="n">
+        <v>90</v>
+      </c>
+      <c r="EX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ16" t="n">
+        <v>10</v>
+      </c>
+      <c r="FA16" t="n">
+        <v>257</v>
+      </c>
+      <c r="FB16" t="n">
+        <v>3</v>
+      </c>
+      <c r="FC16" t="n">
+        <v>23</v>
+      </c>
+      <c r="FD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH16" t="n">
+        <v>2</v>
+      </c>
+      <c r="FI16" t="n">
+        <v>52</v>
+      </c>
+      <c r="FJ16" t="n">
+        <v>7</v>
+      </c>
+      <c r="FK16" t="n">
+        <v>149</v>
+      </c>
+      <c r="FL16" t="n">
+        <v>2</v>
+      </c>
+      <c r="FM16" t="n">
+        <v>43</v>
+      </c>
+      <c r="FN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR16" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS16" t="n">
+        <v>113</v>
+      </c>
+      <c r="FT16" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU16" t="n">
+        <v>255</v>
+      </c>
+      <c r="FV16" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW16" t="n">
+        <v>14</v>
+      </c>
+      <c r="FX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="B17" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="E17" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
       <c r="F17" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="G17"/>
       <c r="H17" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="I17" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J17" t="s">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="K17" t="s">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="L17" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="M17"/>
       <c r="N17" t="s">
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="O17" t="s">
-        <v>430</v>
+        <v>476</v>
       </c>
       <c r="P17" t="s">
-        <v>431</v>
+        <v>477</v>
       </c>
       <c r="Q17" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="R17" t="s">
-        <v>432</v>
+        <v>478</v>
       </c>
       <c r="S17" t="s">
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="T17" t="s">
-        <v>430</v>
+        <v>476</v>
       </c>
       <c r="U17"/>
       <c r="V17"/>
@@ -8569,50 +10627,50 @@
       <c r="X17"/>
       <c r="Y17"/>
       <c r="Z17" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
       <c r="AA17" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="AB17" t="s">
-        <v>432</v>
+        <v>478</v>
       </c>
       <c r="AC17" t="s">
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="AD17" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="AE17" t="s">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="AF17" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="AG17"/>
       <c r="AH17" t="s">
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="AI17" t="s">
-        <v>430</v>
+        <v>476</v>
       </c>
       <c r="AJ17" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AK17" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AL17" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AM17" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AN17" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="AO17" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AP17"/>
       <c r="AQ17"/>
@@ -8802,108 +10860,194 @@
       <c r="EE17" t="n">
         <v>40213</v>
       </c>
+      <c r="EF17"/>
+      <c r="EG17"/>
+      <c r="EH17" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI17" t="n">
+        <v>61</v>
+      </c>
+      <c r="EJ17"/>
+      <c r="EK17"/>
+      <c r="EL17"/>
+      <c r="EM17"/>
+      <c r="EN17" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO17" t="n">
+        <v>113</v>
+      </c>
+      <c r="EP17"/>
+      <c r="EQ17"/>
+      <c r="ER17" t="n">
+        <v>9</v>
+      </c>
+      <c r="ES17" t="n">
+        <v>325</v>
+      </c>
+      <c r="ET17" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU17" t="n">
+        <v>16</v>
+      </c>
+      <c r="EV17"/>
+      <c r="EW17"/>
+      <c r="EX17" t="n">
+        <v>19</v>
+      </c>
+      <c r="EY17" t="n">
+        <v>692</v>
+      </c>
+      <c r="EZ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA17" t="n">
+        <v>31</v>
+      </c>
+      <c r="FB17"/>
+      <c r="FC17"/>
+      <c r="FD17"/>
+      <c r="FE17"/>
+      <c r="FF17"/>
+      <c r="FG17"/>
+      <c r="FH17"/>
+      <c r="FI17"/>
+      <c r="FJ17"/>
+      <c r="FK17"/>
+      <c r="FL17" t="n">
+        <v>3</v>
+      </c>
+      <c r="FM17" t="n">
+        <v>146</v>
+      </c>
+      <c r="FN17"/>
+      <c r="FO17"/>
+      <c r="FP17"/>
+      <c r="FQ17"/>
+      <c r="FR17" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS17" t="n">
+        <v>123</v>
+      </c>
+      <c r="FT17" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU17" t="n">
+        <v>61</v>
+      </c>
+      <c r="FV17" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW17" t="n">
+        <v>20</v>
+      </c>
+      <c r="FX17"/>
+      <c r="FY17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="B18" t="s">
-        <v>436</v>
+        <v>482</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="E18" t="s">
-        <v>437</v>
+        <v>483</v>
       </c>
       <c r="F18" t="s">
-        <v>438</v>
+        <v>484</v>
       </c>
       <c r="G18"/>
       <c r="H18" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="I18" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J18" t="s">
-        <v>439</v>
+        <v>485</v>
       </c>
       <c r="K18" t="s">
-        <v>440</v>
+        <v>486</v>
       </c>
       <c r="L18" t="s">
-        <v>441</v>
+        <v>487</v>
       </c>
       <c r="M18"/>
       <c r="N18"/>
       <c r="O18" t="s">
-        <v>442</v>
+        <v>488</v>
       </c>
       <c r="P18" t="s">
-        <v>440</v>
+        <v>486</v>
       </c>
       <c r="Q18" t="s">
-        <v>443</v>
+        <v>489</v>
       </c>
       <c r="R18"/>
       <c r="S18"/>
       <c r="T18" t="s">
-        <v>442</v>
+        <v>488</v>
       </c>
       <c r="U18" t="s">
-        <v>444</v>
+        <v>490</v>
       </c>
       <c r="V18" t="s">
-        <v>445</v>
+        <v>491</v>
       </c>
       <c r="W18"/>
       <c r="X18"/>
       <c r="Y18" t="s">
-        <v>446</v>
+        <v>492</v>
       </c>
       <c r="Z18" t="s">
-        <v>447</v>
+        <v>493</v>
       </c>
       <c r="AA18" t="s">
-        <v>448</v>
+        <v>494</v>
       </c>
       <c r="AB18"/>
       <c r="AC18"/>
       <c r="AD18" t="s">
-        <v>449</v>
+        <v>495</v>
       </c>
       <c r="AE18" t="s">
-        <v>450</v>
+        <v>496</v>
       </c>
       <c r="AF18" t="s">
-        <v>451</v>
+        <v>497</v>
       </c>
       <c r="AG18"/>
       <c r="AH18"/>
       <c r="AI18" t="s">
-        <v>452</v>
+        <v>498</v>
       </c>
       <c r="AJ18" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AK18" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AL18" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AM18" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AN18" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="AO18" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AP18" t="n">
         <v>0.25</v>
@@ -9180,64 +11324,198 @@
       </c>
       <c r="EE18" t="n">
         <v>14309</v>
+      </c>
+      <c r="EF18" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG18" t="n">
+        <v>3</v>
+      </c>
+      <c r="EH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ18" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK18" t="n">
+        <v>97</v>
+      </c>
+      <c r="EL18" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM18" t="n">
+        <v>15</v>
+      </c>
+      <c r="EN18" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO18" t="n">
+        <v>47</v>
+      </c>
+      <c r="EP18" t="n">
+        <v>2</v>
+      </c>
+      <c r="EQ18" t="n">
+        <v>42</v>
+      </c>
+      <c r="ER18" t="n">
+        <v>2</v>
+      </c>
+      <c r="ES18" t="n">
+        <v>123</v>
+      </c>
+      <c r="ET18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD18"/>
+      <c r="FE18"/>
+      <c r="FF18" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG18" t="n">
+        <v>120</v>
+      </c>
+      <c r="FH18" t="n">
+        <v>3</v>
+      </c>
+      <c r="FI18" t="n">
+        <v>116</v>
+      </c>
+      <c r="FJ18" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK18" t="n">
+        <v>38</v>
+      </c>
+      <c r="FL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR18" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS18" t="n">
+        <v>124</v>
+      </c>
+      <c r="FT18" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU18" t="n">
+        <v>107</v>
+      </c>
+      <c r="FV18" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW18" t="n">
+        <v>40</v>
+      </c>
+      <c r="FX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>453</v>
+        <v>499</v>
       </c>
       <c r="B19" t="s">
-        <v>454</v>
+        <v>500</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>455</v>
+        <v>501</v>
       </c>
       <c r="F19" t="s">
-        <v>456</v>
+        <v>502</v>
       </c>
       <c r="G19"/>
       <c r="H19" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="I19" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J19" t="s">
-        <v>457</v>
+        <v>503</v>
       </c>
       <c r="K19" t="s">
-        <v>458</v>
+        <v>504</v>
       </c>
       <c r="L19" t="s">
-        <v>459</v>
+        <v>505</v>
       </c>
       <c r="M19" t="s">
-        <v>460</v>
+        <v>506</v>
       </c>
       <c r="N19" t="s">
-        <v>461</v>
+        <v>507</v>
       </c>
       <c r="O19" t="s">
-        <v>462</v>
+        <v>508</v>
       </c>
       <c r="P19" t="s">
-        <v>463</v>
+        <v>509</v>
       </c>
       <c r="Q19" t="s">
-        <v>459</v>
+        <v>505</v>
       </c>
       <c r="R19" t="s">
-        <v>464</v>
+        <v>510</v>
       </c>
       <c r="S19" t="s">
-        <v>461</v>
+        <v>507</v>
       </c>
       <c r="T19" t="s">
-        <v>465</v>
+        <v>511</v>
       </c>
       <c r="U19"/>
       <c r="V19"/>
@@ -9250,37 +11528,37 @@
       <c r="AC19"/>
       <c r="AD19"/>
       <c r="AE19" t="s">
-        <v>466</v>
+        <v>512</v>
       </c>
       <c r="AF19" t="s">
-        <v>459</v>
+        <v>505</v>
       </c>
       <c r="AG19" t="s">
-        <v>467</v>
+        <v>513</v>
       </c>
       <c r="AH19" t="s">
-        <v>461</v>
+        <v>507</v>
       </c>
       <c r="AI19" t="s">
-        <v>468</v>
+        <v>514</v>
       </c>
       <c r="AJ19" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AK19" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AL19" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AM19" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AN19" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="AO19" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AP19" t="n">
         <v>0</v>
@@ -9473,7 +11751,7 @@
       </c>
       <c r="DA19"/>
       <c r="DB19" t="s">
-        <v>469</v>
+        <v>515</v>
       </c>
       <c r="DC19" t="n">
         <v>2</v>
@@ -9515,7 +11793,7 @@
         <v>10.6</v>
       </c>
       <c r="DP19" t="s">
-        <v>470</v>
+        <v>516</v>
       </c>
       <c r="DQ19" t="n">
         <v>2</v>
@@ -9530,7 +11808,7 @@
         <v>2209</v>
       </c>
       <c r="DU19" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="DV19" t="n">
         <v>2.1</v>
@@ -9561,58 +11839,196 @@
       </c>
       <c r="EE19" t="n">
         <v>71679</v>
+      </c>
+      <c r="EF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ19" t="n">
+        <v>9</v>
+      </c>
+      <c r="EK19" t="n">
+        <v>257</v>
+      </c>
+      <c r="EL19" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM19" t="n">
+        <v>33</v>
+      </c>
+      <c r="EN19" t="n">
+        <v>2</v>
+      </c>
+      <c r="EO19" t="n">
+        <v>13</v>
+      </c>
+      <c r="EP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER19" t="n">
+        <v>5</v>
+      </c>
+      <c r="ES19" t="n">
+        <v>271</v>
+      </c>
+      <c r="ET19" t="n">
+        <v>3</v>
+      </c>
+      <c r="EU19" t="n">
+        <v>65</v>
+      </c>
+      <c r="EV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX19" t="n">
+        <v>25</v>
+      </c>
+      <c r="EY19" t="n">
+        <v>1139</v>
+      </c>
+      <c r="EZ19" t="n">
+        <v>2</v>
+      </c>
+      <c r="FA19" t="n">
+        <v>34</v>
+      </c>
+      <c r="FB19" t="n">
+        <v>2</v>
+      </c>
+      <c r="FC19" t="n">
+        <v>39</v>
+      </c>
+      <c r="FD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF19" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG19" t="n">
+        <v>30</v>
+      </c>
+      <c r="FH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ19" t="n">
+        <v>18</v>
+      </c>
+      <c r="FK19" t="n">
+        <v>742</v>
+      </c>
+      <c r="FL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR19" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS19" t="n">
+        <v>228</v>
+      </c>
+      <c r="FT19" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU19" t="n">
+        <v>14</v>
+      </c>
+      <c r="FV19" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW19" t="n">
+        <v>3</v>
+      </c>
+      <c r="FX19" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY19" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="B20" t="s">
-        <v>473</v>
+        <v>519</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="F20" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="G20"/>
       <c r="H20" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="I20" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J20" t="s">
-        <v>282</v>
+        <v>328</v>
       </c>
       <c r="K20" t="s">
-        <v>476</v>
+        <v>522</v>
       </c>
       <c r="L20" t="s">
-        <v>477</v>
+        <v>523</v>
       </c>
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20" t="s">
-        <v>478</v>
+        <v>524</v>
       </c>
       <c r="P20" t="s">
-        <v>479</v>
+        <v>525</v>
       </c>
       <c r="Q20" t="s">
-        <v>477</v>
+        <v>523</v>
       </c>
       <c r="R20"/>
       <c r="S20" t="s">
-        <v>480</v>
+        <v>526</v>
       </c>
       <c r="T20" t="s">
-        <v>478</v>
+        <v>524</v>
       </c>
       <c r="U20"/>
       <c r="V20"/>
@@ -9620,48 +12036,48 @@
       <c r="X20"/>
       <c r="Y20"/>
       <c r="Z20" t="s">
-        <v>481</v>
+        <v>527</v>
       </c>
       <c r="AA20" t="s">
-        <v>482</v>
+        <v>528</v>
       </c>
       <c r="AB20"/>
       <c r="AC20" t="s">
-        <v>483</v>
+        <v>529</v>
       </c>
       <c r="AD20" t="s">
-        <v>484</v>
+        <v>530</v>
       </c>
       <c r="AE20" t="s">
-        <v>479</v>
+        <v>525</v>
       </c>
       <c r="AF20" t="s">
-        <v>477</v>
+        <v>523</v>
       </c>
       <c r="AG20"/>
       <c r="AH20" t="s">
-        <v>480</v>
+        <v>526</v>
       </c>
       <c r="AI20" t="s">
-        <v>478</v>
+        <v>524</v>
       </c>
       <c r="AJ20" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AK20" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AL20" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AM20" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AN20" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="AO20" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AP20" t="n">
         <v>1</v>
@@ -9938,109 +12354,247 @@
       </c>
       <c r="EE20" t="n">
         <v>8844</v>
+      </c>
+      <c r="EF20" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG20" t="n">
+        <v>19</v>
+      </c>
+      <c r="EH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP20" t="n">
+        <v>2</v>
+      </c>
+      <c r="EQ20" t="n">
+        <v>115</v>
+      </c>
+      <c r="ER20" t="n">
+        <v>2</v>
+      </c>
+      <c r="ES20" t="n">
+        <v>328</v>
+      </c>
+      <c r="ET20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX20" t="n">
+        <v>3</v>
+      </c>
+      <c r="EY20" t="n">
+        <v>73</v>
+      </c>
+      <c r="EZ20" t="n">
+        <v>2</v>
+      </c>
+      <c r="FA20" t="n">
+        <v>159</v>
+      </c>
+      <c r="FB20" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC20" t="n">
+        <v>4</v>
+      </c>
+      <c r="FD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH20" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI20" t="n">
+        <v>48</v>
+      </c>
+      <c r="FJ20" t="n">
+        <v>2</v>
+      </c>
+      <c r="FK20" t="n">
+        <v>72</v>
+      </c>
+      <c r="FL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR20" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS20" t="n">
+        <v>35</v>
+      </c>
+      <c r="FT20" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU20" t="n">
+        <v>43</v>
+      </c>
+      <c r="FV20" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW20" t="n">
+        <v>24</v>
+      </c>
+      <c r="FX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>485</v>
+        <v>531</v>
       </c>
       <c r="B21" t="s">
-        <v>486</v>
+        <v>532</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>487</v>
+        <v>533</v>
       </c>
       <c r="F21" t="s">
-        <v>488</v>
+        <v>534</v>
       </c>
       <c r="G21"/>
       <c r="H21" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="I21" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J21" t="s">
-        <v>457</v>
+        <v>503</v>
       </c>
       <c r="K21" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="L21" t="s">
-        <v>490</v>
+        <v>536</v>
       </c>
       <c r="M21"/>
       <c r="N21" t="s">
-        <v>491</v>
+        <v>537</v>
       </c>
       <c r="O21" t="s">
-        <v>492</v>
+        <v>538</v>
       </c>
       <c r="P21" t="s">
-        <v>493</v>
+        <v>539</v>
       </c>
       <c r="Q21" t="s">
-        <v>494</v>
+        <v>540</v>
       </c>
       <c r="R21"/>
       <c r="S21"/>
       <c r="T21" t="s">
-        <v>495</v>
+        <v>541</v>
       </c>
       <c r="U21" t="s">
-        <v>496</v>
+        <v>542</v>
       </c>
       <c r="V21" t="s">
-        <v>497</v>
+        <v>543</v>
       </c>
       <c r="W21"/>
       <c r="X21"/>
       <c r="Y21" t="s">
-        <v>498</v>
+        <v>544</v>
       </c>
       <c r="Z21" t="s">
-        <v>499</v>
+        <v>545</v>
       </c>
       <c r="AA21" t="s">
-        <v>500</v>
+        <v>546</v>
       </c>
       <c r="AB21"/>
       <c r="AC21"/>
       <c r="AD21" t="s">
-        <v>501</v>
+        <v>547</v>
       </c>
       <c r="AE21" t="s">
-        <v>502</v>
+        <v>548</v>
       </c>
       <c r="AF21" t="s">
-        <v>503</v>
+        <v>549</v>
       </c>
       <c r="AG21"/>
       <c r="AH21"/>
       <c r="AI21" t="s">
-        <v>504</v>
+        <v>550</v>
       </c>
       <c r="AJ21" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AK21" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AL21" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AM21" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AN21" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="AO21" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AP21" t="n">
         <v>0.5</v>
@@ -10235,7 +12789,7 @@
         <v>0</v>
       </c>
       <c r="DB21" t="s">
-        <v>505</v>
+        <v>551</v>
       </c>
       <c r="DC21" t="n">
         <v>0.1</v>
@@ -10319,115 +12873,253 @@
       </c>
       <c r="EE21" t="n">
         <v>8220</v>
+      </c>
+      <c r="EF21" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG21" t="n">
+        <v>12</v>
+      </c>
+      <c r="EH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER21" t="n">
+        <v>5</v>
+      </c>
+      <c r="ES21" t="n">
+        <v>183</v>
+      </c>
+      <c r="ET21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX21" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY21" t="n">
+        <v>67</v>
+      </c>
+      <c r="EZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF21" t="n">
+        <v>4</v>
+      </c>
+      <c r="FG21" t="n">
+        <v>24</v>
+      </c>
+      <c r="FH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR21" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS21" t="n">
+        <v>155</v>
+      </c>
+      <c r="FT21" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU21" t="n">
+        <v>128</v>
+      </c>
+      <c r="FV21" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW21" t="n">
+        <v>122</v>
+      </c>
+      <c r="FX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>506</v>
+        <v>552</v>
       </c>
       <c r="B22" t="s">
-        <v>507</v>
+        <v>553</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="E22" t="s">
-        <v>508</v>
+        <v>554</v>
       </c>
       <c r="F22" t="s">
-        <v>509</v>
+        <v>555</v>
       </c>
       <c r="G22"/>
       <c r="H22" t="s">
-        <v>510</v>
+        <v>556</v>
       </c>
       <c r="I22" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J22" t="s">
-        <v>511</v>
+        <v>557</v>
       </c>
       <c r="K22" t="s">
-        <v>512</v>
+        <v>558</v>
       </c>
       <c r="L22" t="s">
-        <v>513</v>
+        <v>559</v>
       </c>
       <c r="M22"/>
       <c r="N22"/>
       <c r="O22" t="s">
-        <v>514</v>
+        <v>560</v>
       </c>
       <c r="P22" t="s">
-        <v>512</v>
+        <v>558</v>
       </c>
       <c r="Q22" t="s">
-        <v>513</v>
+        <v>559</v>
       </c>
       <c r="R22"/>
       <c r="S22"/>
       <c r="T22" t="s">
-        <v>514</v>
+        <v>560</v>
       </c>
       <c r="U22" t="s">
-        <v>515</v>
+        <v>561</v>
       </c>
       <c r="V22" t="s">
-        <v>516</v>
+        <v>562</v>
       </c>
       <c r="W22"/>
       <c r="X22" t="s">
-        <v>517</v>
+        <v>563</v>
       </c>
       <c r="Y22" t="s">
-        <v>518</v>
+        <v>564</v>
       </c>
       <c r="Z22" t="s">
-        <v>519</v>
+        <v>565</v>
       </c>
       <c r="AA22" t="s">
-        <v>520</v>
+        <v>566</v>
       </c>
       <c r="AB22"/>
       <c r="AC22" t="s">
-        <v>517</v>
+        <v>563</v>
       </c>
       <c r="AD22" t="s">
-        <v>521</v>
+        <v>567</v>
       </c>
       <c r="AE22" t="s">
-        <v>522</v>
+        <v>568</v>
       </c>
       <c r="AF22" t="s">
-        <v>523</v>
+        <v>569</v>
       </c>
       <c r="AG22"/>
       <c r="AH22" t="s">
-        <v>524</v>
+        <v>570</v>
       </c>
       <c r="AI22" t="s">
-        <v>525</v>
+        <v>571</v>
       </c>
       <c r="AJ22" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AK22" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AL22" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AM22" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AN22" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="AO22" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AP22" t="n">
         <v>2.02</v>
@@ -10704,117 +13396,255 @@
       </c>
       <c r="EE22" t="n">
         <v>19232</v>
+      </c>
+      <c r="EF22" t="n">
+        <v>3</v>
+      </c>
+      <c r="EG22" t="n">
+        <v>145</v>
+      </c>
+      <c r="EH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK22" t="n">
+        <v>8</v>
+      </c>
+      <c r="EL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER22" t="n">
+        <v>7</v>
+      </c>
+      <c r="ES22" t="n">
+        <v>102</v>
+      </c>
+      <c r="ET22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX22" t="n">
+        <v>7</v>
+      </c>
+      <c r="EY22" t="n">
+        <v>1019</v>
+      </c>
+      <c r="EZ22" t="n">
+        <v>3</v>
+      </c>
+      <c r="FA22" t="n">
+        <v>309</v>
+      </c>
+      <c r="FB22" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC22" t="n">
+        <v>5</v>
+      </c>
+      <c r="FD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ22" t="n">
+        <v>3</v>
+      </c>
+      <c r="FK22" t="n">
+        <v>149</v>
+      </c>
+      <c r="FL22" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM22" t="n">
+        <v>4</v>
+      </c>
+      <c r="FN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR22" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS22" t="n">
+        <v>10</v>
+      </c>
+      <c r="FT22" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU22" t="n">
+        <v>31</v>
+      </c>
+      <c r="FV22" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW22" t="n">
+        <v>6</v>
+      </c>
+      <c r="FX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>526</v>
+        <v>572</v>
       </c>
       <c r="B23" t="s">
-        <v>527</v>
+        <v>573</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D23" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="E23" t="s">
-        <v>528</v>
+        <v>574</v>
       </c>
       <c r="F23" t="s">
-        <v>529</v>
+        <v>575</v>
       </c>
       <c r="G23"/>
       <c r="H23" t="s">
-        <v>530</v>
+        <v>576</v>
       </c>
       <c r="I23" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J23" t="s">
-        <v>531</v>
+        <v>577</v>
       </c>
       <c r="K23" t="s">
-        <v>532</v>
+        <v>578</v>
       </c>
       <c r="L23" t="s">
-        <v>533</v>
+        <v>579</v>
       </c>
       <c r="M23"/>
       <c r="N23"/>
       <c r="O23" t="s">
-        <v>534</v>
+        <v>580</v>
       </c>
       <c r="P23" t="s">
-        <v>535</v>
+        <v>581</v>
       </c>
       <c r="Q23" t="s">
-        <v>533</v>
+        <v>579</v>
       </c>
       <c r="R23"/>
       <c r="S23" t="s">
-        <v>536</v>
+        <v>582</v>
       </c>
       <c r="T23" t="s">
-        <v>537</v>
+        <v>583</v>
       </c>
       <c r="U23" t="s">
-        <v>538</v>
+        <v>584</v>
       </c>
       <c r="V23" t="s">
-        <v>539</v>
+        <v>585</v>
       </c>
       <c r="W23"/>
       <c r="X23" t="s">
-        <v>536</v>
+        <v>582</v>
       </c>
       <c r="Y23" t="s">
-        <v>540</v>
+        <v>586</v>
       </c>
       <c r="Z23" t="s">
-        <v>541</v>
+        <v>587</v>
       </c>
       <c r="AA23" t="s">
-        <v>533</v>
+        <v>579</v>
       </c>
       <c r="AB23"/>
       <c r="AC23" t="s">
-        <v>542</v>
+        <v>588</v>
       </c>
       <c r="AD23" t="s">
-        <v>543</v>
+        <v>589</v>
       </c>
       <c r="AE23" t="s">
-        <v>544</v>
+        <v>590</v>
       </c>
       <c r="AF23" t="s">
-        <v>539</v>
+        <v>585</v>
       </c>
       <c r="AG23"/>
       <c r="AH23" t="s">
-        <v>536</v>
+        <v>582</v>
       </c>
       <c r="AI23" t="s">
-        <v>545</v>
+        <v>591</v>
       </c>
       <c r="AJ23" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AK23" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AL23" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AM23" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AN23" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="AO23" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AP23" t="n">
         <v>0</v>
@@ -11009,7 +13839,7 @@
         <v>0</v>
       </c>
       <c r="DB23" t="s">
-        <v>546</v>
+        <v>592</v>
       </c>
       <c r="DC23" t="n">
         <v>0.11</v>
@@ -11093,119 +13923,257 @@
       </c>
       <c r="EE23" t="n">
         <v>110825</v>
+      </c>
+      <c r="EF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK23" t="n">
+        <v>118</v>
+      </c>
+      <c r="EL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER23" t="n">
+        <v>21</v>
+      </c>
+      <c r="ES23" t="n">
+        <v>1045</v>
+      </c>
+      <c r="ET23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX23" t="n">
+        <v>23</v>
+      </c>
+      <c r="EY23" t="n">
+        <v>832</v>
+      </c>
+      <c r="EZ23" t="n">
+        <v>4</v>
+      </c>
+      <c r="FA23" t="n">
+        <v>201</v>
+      </c>
+      <c r="FB23" t="n">
+        <v>2</v>
+      </c>
+      <c r="FC23" t="n">
+        <v>155</v>
+      </c>
+      <c r="FD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH23" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI23" t="n">
+        <v>35</v>
+      </c>
+      <c r="FJ23" t="n">
+        <v>32</v>
+      </c>
+      <c r="FK23" t="n">
+        <v>1515</v>
+      </c>
+      <c r="FL23" t="n">
+        <v>16</v>
+      </c>
+      <c r="FM23" t="n">
+        <v>334</v>
+      </c>
+      <c r="FN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR23" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS23" t="n">
+        <v>234</v>
+      </c>
+      <c r="FT23" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU23" t="n">
+        <v>222</v>
+      </c>
+      <c r="FV23" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW23" t="n">
+        <v>125</v>
+      </c>
+      <c r="FX23" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY23" t="n">
+        <v>183</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>547</v>
+        <v>593</v>
       </c>
       <c r="B24" t="s">
-        <v>548</v>
+        <v>594</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="E24" t="s">
-        <v>549</v>
+        <v>595</v>
       </c>
       <c r="F24" t="s">
-        <v>550</v>
+        <v>596</v>
       </c>
       <c r="G24"/>
       <c r="H24" t="s">
-        <v>551</v>
+        <v>597</v>
       </c>
       <c r="I24" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J24" t="s">
-        <v>552</v>
+        <v>598</v>
       </c>
       <c r="K24" t="s">
-        <v>553</v>
+        <v>599</v>
       </c>
       <c r="L24" t="s">
-        <v>554</v>
+        <v>600</v>
       </c>
       <c r="M24"/>
       <c r="N24" t="s">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="O24" t="s">
-        <v>556</v>
+        <v>602</v>
       </c>
       <c r="P24" t="s">
-        <v>557</v>
+        <v>603</v>
       </c>
       <c r="Q24" t="s">
-        <v>554</v>
+        <v>600</v>
       </c>
       <c r="R24"/>
       <c r="S24" t="s">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="T24" t="s">
-        <v>556</v>
+        <v>602</v>
       </c>
       <c r="U24" t="s">
-        <v>558</v>
+        <v>604</v>
       </c>
       <c r="V24" t="s">
-        <v>554</v>
+        <v>600</v>
       </c>
       <c r="W24"/>
       <c r="X24" t="s">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="Y24" t="s">
-        <v>556</v>
+        <v>602</v>
       </c>
       <c r="Z24" t="s">
-        <v>559</v>
+        <v>605</v>
       </c>
       <c r="AA24" t="s">
-        <v>554</v>
+        <v>600</v>
       </c>
       <c r="AB24"/>
       <c r="AC24" t="s">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="AD24" t="s">
-        <v>560</v>
+        <v>606</v>
       </c>
       <c r="AE24" t="s">
-        <v>557</v>
+        <v>603</v>
       </c>
       <c r="AF24" t="s">
-        <v>554</v>
+        <v>600</v>
       </c>
       <c r="AG24"/>
       <c r="AH24" t="s">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="AI24" t="s">
-        <v>556</v>
+        <v>602</v>
       </c>
       <c r="AJ24" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AK24" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AL24" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AM24" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AN24" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="AO24" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AP24" t="n">
         <v>0.14</v>
@@ -11481,116 +14449,254 @@
       <c r="EE24" t="n">
         <v>108316</v>
       </c>
+      <c r="EF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL24" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM24" t="n">
+        <v>12</v>
+      </c>
+      <c r="EN24" t="n">
+        <v>2</v>
+      </c>
+      <c r="EO24" t="n">
+        <v>50</v>
+      </c>
+      <c r="EP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER24" t="n">
+        <v>9</v>
+      </c>
+      <c r="ES24" t="n">
+        <v>216</v>
+      </c>
+      <c r="ET24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX24" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY24" t="n">
+        <v>4</v>
+      </c>
+      <c r="EZ24" t="n">
+        <v>3</v>
+      </c>
+      <c r="FA24" t="n">
+        <v>149</v>
+      </c>
+      <c r="FB24" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC24" t="n">
+        <v>6</v>
+      </c>
+      <c r="FD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL24" t="n">
+        <v>5</v>
+      </c>
+      <c r="FM24" t="n">
+        <v>212</v>
+      </c>
+      <c r="FN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR24" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS24" t="n">
+        <v>228</v>
+      </c>
+      <c r="FT24" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU24" t="n">
+        <v>11</v>
+      </c>
+      <c r="FV24" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW24" t="n">
+        <v>57</v>
+      </c>
+      <c r="FX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>561</v>
+        <v>607</v>
       </c>
       <c r="B25" t="s">
-        <v>562</v>
+        <v>608</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
-        <v>563</v>
+        <v>609</v>
       </c>
       <c r="F25" t="s">
-        <v>564</v>
+        <v>610</v>
       </c>
       <c r="G25"/>
       <c r="H25" t="s">
-        <v>565</v>
+        <v>611</v>
       </c>
       <c r="I25" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J25" t="s">
-        <v>566</v>
+        <v>612</v>
       </c>
       <c r="K25" t="s">
-        <v>567</v>
+        <v>613</v>
       </c>
       <c r="L25" t="s">
-        <v>568</v>
+        <v>614</v>
       </c>
       <c r="M25"/>
       <c r="N25" t="s">
-        <v>569</v>
+        <v>615</v>
       </c>
       <c r="O25" t="s">
-        <v>570</v>
+        <v>616</v>
       </c>
       <c r="P25" t="s">
-        <v>567</v>
+        <v>613</v>
       </c>
       <c r="Q25" t="s">
-        <v>571</v>
+        <v>617</v>
       </c>
       <c r="R25"/>
       <c r="S25" t="s">
-        <v>572</v>
+        <v>618</v>
       </c>
       <c r="T25" t="s">
-        <v>570</v>
+        <v>616</v>
       </c>
       <c r="U25" t="s">
-        <v>573</v>
+        <v>619</v>
       </c>
       <c r="V25" t="s">
-        <v>571</v>
+        <v>617</v>
       </c>
       <c r="W25"/>
       <c r="X25" t="s">
-        <v>572</v>
+        <v>618</v>
       </c>
       <c r="Y25" t="s">
-        <v>574</v>
+        <v>620</v>
       </c>
       <c r="Z25" t="s">
-        <v>575</v>
+        <v>621</v>
       </c>
       <c r="AA25" t="s">
-        <v>571</v>
+        <v>617</v>
       </c>
       <c r="AB25"/>
       <c r="AC25" t="s">
-        <v>572</v>
+        <v>618</v>
       </c>
       <c r="AD25" t="s">
-        <v>576</v>
+        <v>622</v>
       </c>
       <c r="AE25" t="s">
-        <v>577</v>
+        <v>623</v>
       </c>
       <c r="AF25" t="s">
-        <v>571</v>
+        <v>617</v>
       </c>
       <c r="AG25"/>
       <c r="AH25" t="s">
-        <v>572</v>
+        <v>618</v>
       </c>
       <c r="AI25" t="s">
-        <v>578</v>
+        <v>624</v>
       </c>
       <c r="AJ25" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AK25" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AL25" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AM25" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AN25" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="AO25" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AP25" t="n">
         <v>0.95</v>
@@ -11734,7 +14840,7 @@
         <v>587</v>
       </c>
       <c r="DU25" t="s">
-        <v>579</v>
+        <v>625</v>
       </c>
       <c r="DV25" t="n">
         <v>0.2</v>
@@ -11762,122 +14868,200 @@
       <c r="EE25" t="n">
         <v>11320</v>
       </c>
+      <c r="EF25" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG25" t="n">
+        <v>16</v>
+      </c>
+      <c r="EH25"/>
+      <c r="EI25"/>
+      <c r="EJ25"/>
+      <c r="EK25"/>
+      <c r="EL25"/>
+      <c r="EM25"/>
+      <c r="EN25"/>
+      <c r="EO25"/>
+      <c r="EP25"/>
+      <c r="EQ25"/>
+      <c r="ER25" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES25" t="n">
+        <v>24</v>
+      </c>
+      <c r="ET25"/>
+      <c r="EU25"/>
+      <c r="EV25"/>
+      <c r="EW25"/>
+      <c r="EX25" t="n">
+        <v>3</v>
+      </c>
+      <c r="EY25" t="n">
+        <v>63</v>
+      </c>
+      <c r="EZ25"/>
+      <c r="FA25"/>
+      <c r="FB25"/>
+      <c r="FC25"/>
+      <c r="FD25"/>
+      <c r="FE25"/>
+      <c r="FF25" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG25" t="n">
+        <v>35</v>
+      </c>
+      <c r="FH25"/>
+      <c r="FI25"/>
+      <c r="FJ25" t="n">
+        <v>3</v>
+      </c>
+      <c r="FK25" t="n">
+        <v>37</v>
+      </c>
+      <c r="FL25"/>
+      <c r="FM25"/>
+      <c r="FN25"/>
+      <c r="FO25"/>
+      <c r="FP25"/>
+      <c r="FQ25"/>
+      <c r="FR25" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS25" t="n">
+        <v>92</v>
+      </c>
+      <c r="FT25" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU25" t="n">
+        <v>29</v>
+      </c>
+      <c r="FV25" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW25" t="n">
+        <v>19</v>
+      </c>
+      <c r="FX25"/>
+      <c r="FY25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>580</v>
+        <v>626</v>
       </c>
       <c r="B26" t="s">
-        <v>581</v>
+        <v>627</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
-        <v>582</v>
+        <v>628</v>
       </c>
       <c r="F26" t="s">
-        <v>583</v>
+        <v>629</v>
       </c>
       <c r="G26"/>
       <c r="H26" t="s">
-        <v>584</v>
+        <v>630</v>
       </c>
       <c r="I26" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J26" t="s">
-        <v>585</v>
+        <v>631</v>
       </c>
       <c r="K26" t="s">
-        <v>586</v>
+        <v>632</v>
       </c>
       <c r="L26" t="s">
-        <v>587</v>
+        <v>633</v>
       </c>
       <c r="M26" t="s">
-        <v>588</v>
+        <v>634</v>
       </c>
       <c r="N26" t="s">
-        <v>587</v>
+        <v>633</v>
       </c>
       <c r="O26" t="s">
-        <v>589</v>
+        <v>635</v>
       </c>
       <c r="P26" t="s">
-        <v>590</v>
+        <v>636</v>
       </c>
       <c r="Q26" t="s">
-        <v>587</v>
+        <v>633</v>
       </c>
       <c r="R26" t="s">
-        <v>591</v>
+        <v>637</v>
       </c>
       <c r="S26" t="s">
-        <v>592</v>
+        <v>638</v>
       </c>
       <c r="T26" t="s">
-        <v>589</v>
+        <v>635</v>
       </c>
       <c r="U26" t="s">
-        <v>593</v>
+        <v>639</v>
       </c>
       <c r="V26" t="s">
-        <v>587</v>
+        <v>633</v>
       </c>
       <c r="W26"/>
       <c r="X26" t="s">
-        <v>592</v>
+        <v>638</v>
       </c>
       <c r="Y26" t="s">
-        <v>589</v>
+        <v>635</v>
       </c>
       <c r="Z26" t="s">
-        <v>594</v>
+        <v>640</v>
       </c>
       <c r="AA26" t="s">
-        <v>587</v>
+        <v>633</v>
       </c>
       <c r="AB26"/>
       <c r="AC26" t="s">
-        <v>592</v>
+        <v>638</v>
       </c>
       <c r="AD26" t="s">
-        <v>595</v>
+        <v>641</v>
       </c>
       <c r="AE26" t="s">
-        <v>590</v>
+        <v>636</v>
       </c>
       <c r="AF26" t="s">
-        <v>587</v>
+        <v>633</v>
       </c>
       <c r="AG26" t="s">
-        <v>591</v>
+        <v>637</v>
       </c>
       <c r="AH26" t="s">
-        <v>592</v>
+        <v>638</v>
       </c>
       <c r="AI26" t="s">
-        <v>589</v>
+        <v>635</v>
       </c>
       <c r="AJ26" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AK26" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AL26" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AM26" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AN26" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="AO26" t="s">
-        <v>596</v>
+        <v>642</v>
       </c>
       <c r="AP26" t="n">
         <v>1.33</v>
@@ -12065,116 +15249,210 @@
       <c r="EE26" t="n">
         <v>26180</v>
       </c>
+      <c r="EF26" t="n">
+        <v>2</v>
+      </c>
+      <c r="EG26" t="n">
+        <v>16</v>
+      </c>
+      <c r="EH26"/>
+      <c r="EI26"/>
+      <c r="EJ26" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK26" t="n">
+        <v>60</v>
+      </c>
+      <c r="EL26"/>
+      <c r="EM26"/>
+      <c r="EN26"/>
+      <c r="EO26"/>
+      <c r="EP26" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ26" t="n">
+        <v>5</v>
+      </c>
+      <c r="ER26" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES26" t="n">
+        <v>24</v>
+      </c>
+      <c r="ET26"/>
+      <c r="EU26"/>
+      <c r="EV26"/>
+      <c r="EW26"/>
+      <c r="EX26" t="n">
+        <v>4</v>
+      </c>
+      <c r="EY26" t="n">
+        <v>12</v>
+      </c>
+      <c r="EZ26" t="n">
+        <v>3</v>
+      </c>
+      <c r="FA26" t="n">
+        <v>78</v>
+      </c>
+      <c r="FB26"/>
+      <c r="FC26"/>
+      <c r="FD26"/>
+      <c r="FE26"/>
+      <c r="FF26"/>
+      <c r="FG26"/>
+      <c r="FH26" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI26" t="n">
+        <v>13</v>
+      </c>
+      <c r="FJ26" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK26" t="n">
+        <v>2</v>
+      </c>
+      <c r="FL26"/>
+      <c r="FM26"/>
+      <c r="FN26"/>
+      <c r="FO26"/>
+      <c r="FP26"/>
+      <c r="FQ26"/>
+      <c r="FR26" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS26" t="n">
+        <v>124</v>
+      </c>
+      <c r="FT26" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU26" t="n">
+        <v>12</v>
+      </c>
+      <c r="FV26" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW26" t="n">
+        <v>24</v>
+      </c>
+      <c r="FX26" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY26" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>597</v>
+        <v>643</v>
       </c>
       <c r="B27" t="s">
-        <v>598</v>
+        <v>644</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="E27" t="s">
-        <v>599</v>
+        <v>645</v>
       </c>
       <c r="F27" t="s">
-        <v>600</v>
+        <v>646</v>
       </c>
       <c r="G27"/>
       <c r="H27" t="s">
-        <v>601</v>
+        <v>647</v>
       </c>
       <c r="I27" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J27" t="s">
-        <v>602</v>
+        <v>648</v>
       </c>
       <c r="K27" t="s">
-        <v>603</v>
+        <v>649</v>
       </c>
       <c r="L27" t="s">
-        <v>604</v>
+        <v>650</v>
       </c>
       <c r="M27"/>
       <c r="N27" t="s">
-        <v>605</v>
+        <v>651</v>
       </c>
       <c r="O27" t="s">
-        <v>606</v>
+        <v>652</v>
       </c>
       <c r="P27" t="s">
-        <v>603</v>
+        <v>649</v>
       </c>
       <c r="Q27" t="s">
-        <v>604</v>
+        <v>650</v>
       </c>
       <c r="R27"/>
       <c r="S27" t="s">
-        <v>605</v>
+        <v>651</v>
       </c>
       <c r="T27" t="s">
-        <v>606</v>
+        <v>652</v>
       </c>
       <c r="U27" t="s">
-        <v>607</v>
+        <v>653</v>
       </c>
       <c r="V27" t="s">
-        <v>608</v>
+        <v>654</v>
       </c>
       <c r="W27"/>
       <c r="X27"/>
       <c r="Y27" t="s">
-        <v>609</v>
+        <v>655</v>
       </c>
       <c r="Z27" t="s">
-        <v>610</v>
+        <v>656</v>
       </c>
       <c r="AA27" t="s">
-        <v>611</v>
+        <v>657</v>
       </c>
       <c r="AB27"/>
       <c r="AC27" t="s">
-        <v>612</v>
+        <v>658</v>
       </c>
       <c r="AD27" t="s">
-        <v>613</v>
+        <v>659</v>
       </c>
       <c r="AE27" t="s">
-        <v>603</v>
+        <v>649</v>
       </c>
       <c r="AF27" t="s">
-        <v>604</v>
+        <v>650</v>
       </c>
       <c r="AG27"/>
       <c r="AH27" t="s">
-        <v>605</v>
+        <v>651</v>
       </c>
       <c r="AI27" t="s">
-        <v>606</v>
+        <v>652</v>
       </c>
       <c r="AJ27" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AK27" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AL27" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AM27" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AN27" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="AO27" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AP27" t="n">
         <v>0.52</v>
@@ -12367,7 +15645,7 @@
         <v>0</v>
       </c>
       <c r="DB27" t="s">
-        <v>614</v>
+        <v>660</v>
       </c>
       <c r="DC27" t="n">
         <v>1</v>
@@ -12422,7 +15700,7 @@
         <v>0</v>
       </c>
       <c r="DU27" t="s">
-        <v>615</v>
+        <v>661</v>
       </c>
       <c r="DV27" t="n">
         <v>4.25</v>
@@ -12453,121 +15731,259 @@
       </c>
       <c r="EE27" t="n">
         <v>39333</v>
+      </c>
+      <c r="EF27" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG27" t="n">
+        <v>13</v>
+      </c>
+      <c r="EH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL27" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM27" t="n">
+        <v>25</v>
+      </c>
+      <c r="EN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP27" t="n">
+        <v>2</v>
+      </c>
+      <c r="EQ27" t="n">
+        <v>128</v>
+      </c>
+      <c r="ER27" t="n">
+        <v>8</v>
+      </c>
+      <c r="ES27" t="n">
+        <v>403</v>
+      </c>
+      <c r="ET27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX27" t="n">
+        <v>20</v>
+      </c>
+      <c r="EY27" t="n">
+        <v>752</v>
+      </c>
+      <c r="EZ27" t="n">
+        <v>4</v>
+      </c>
+      <c r="FA27" t="n">
+        <v>123</v>
+      </c>
+      <c r="FB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ27" t="n">
+        <v>4</v>
+      </c>
+      <c r="FK27" t="n">
+        <v>82</v>
+      </c>
+      <c r="FL27" t="n">
+        <v>3</v>
+      </c>
+      <c r="FM27" t="n">
+        <v>160</v>
+      </c>
+      <c r="FN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR27" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS27" t="n">
+        <v>37</v>
+      </c>
+      <c r="FT27" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU27" t="n">
+        <v>14</v>
+      </c>
+      <c r="FV27" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW27" t="n">
+        <v>34</v>
+      </c>
+      <c r="FX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>616</v>
+        <v>662</v>
       </c>
       <c r="B28" t="s">
-        <v>617</v>
+        <v>663</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
-        <v>618</v>
+        <v>664</v>
       </c>
       <c r="F28" t="s">
-        <v>619</v>
+        <v>665</v>
       </c>
       <c r="G28"/>
       <c r="H28" t="s">
-        <v>620</v>
+        <v>666</v>
       </c>
       <c r="I28" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J28" t="s">
-        <v>621</v>
+        <v>667</v>
       </c>
       <c r="K28" t="s">
-        <v>622</v>
+        <v>668</v>
       </c>
       <c r="L28" t="s">
-        <v>623</v>
+        <v>669</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="s">
-        <v>624</v>
+        <v>670</v>
       </c>
       <c r="O28" t="s">
-        <v>625</v>
+        <v>671</v>
       </c>
       <c r="P28" t="s">
-        <v>622</v>
+        <v>668</v>
       </c>
       <c r="Q28" t="s">
-        <v>623</v>
+        <v>669</v>
       </c>
       <c r="R28" t="s">
-        <v>626</v>
+        <v>672</v>
       </c>
       <c r="S28" t="s">
-        <v>624</v>
+        <v>670</v>
       </c>
       <c r="T28" t="s">
-        <v>625</v>
+        <v>671</v>
       </c>
       <c r="U28" t="s">
-        <v>627</v>
+        <v>673</v>
       </c>
       <c r="V28" t="s">
-        <v>623</v>
+        <v>669</v>
       </c>
       <c r="W28"/>
       <c r="X28" t="s">
-        <v>624</v>
+        <v>670</v>
       </c>
       <c r="Y28" t="s">
-        <v>625</v>
+        <v>671</v>
       </c>
       <c r="Z28" t="s">
-        <v>628</v>
+        <v>674</v>
       </c>
       <c r="AA28" t="s">
-        <v>629</v>
+        <v>675</v>
       </c>
       <c r="AB28" t="s">
-        <v>630</v>
+        <v>676</v>
       </c>
       <c r="AC28" t="s">
-        <v>624</v>
+        <v>670</v>
       </c>
       <c r="AD28" t="s">
-        <v>631</v>
+        <v>677</v>
       </c>
       <c r="AE28" t="s">
-        <v>632</v>
+        <v>678</v>
       </c>
       <c r="AF28" t="s">
-        <v>623</v>
+        <v>669</v>
       </c>
       <c r="AG28"/>
       <c r="AH28" t="s">
-        <v>633</v>
+        <v>679</v>
       </c>
       <c r="AI28" t="s">
-        <v>634</v>
+        <v>680</v>
       </c>
       <c r="AJ28" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AK28" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AL28" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AM28" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AN28" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="AO28" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AP28" t="n">
         <v>1.3</v>
@@ -12698,7 +16114,7 @@
       <c r="CZ28"/>
       <c r="DA28"/>
       <c r="DB28" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="DC28" t="n">
         <v>0.2</v>
@@ -12765,118 +16181,212 @@
       <c r="EE28" t="n">
         <v>33614</v>
       </c>
+      <c r="EF28" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG28" t="n">
+        <v>157</v>
+      </c>
+      <c r="EH28"/>
+      <c r="EI28"/>
+      <c r="EJ28"/>
+      <c r="EK28"/>
+      <c r="EL28"/>
+      <c r="EM28"/>
+      <c r="EN28" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO28" t="n">
+        <v>27</v>
+      </c>
+      <c r="EP28"/>
+      <c r="EQ28"/>
+      <c r="ER28" t="n">
+        <v>5</v>
+      </c>
+      <c r="ES28" t="n">
+        <v>179</v>
+      </c>
+      <c r="ET28"/>
+      <c r="EU28"/>
+      <c r="EV28"/>
+      <c r="EW28"/>
+      <c r="EX28" t="n">
+        <v>11</v>
+      </c>
+      <c r="EY28" t="n">
+        <v>466</v>
+      </c>
+      <c r="EZ28" t="n">
+        <v>2</v>
+      </c>
+      <c r="FA28" t="n">
+        <v>223</v>
+      </c>
+      <c r="FB28" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC28" t="n">
+        <v>100</v>
+      </c>
+      <c r="FD28"/>
+      <c r="FE28"/>
+      <c r="FF28" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG28" t="n">
+        <v>42</v>
+      </c>
+      <c r="FH28"/>
+      <c r="FI28"/>
+      <c r="FJ28"/>
+      <c r="FK28"/>
+      <c r="FL28" t="n">
+        <v>2</v>
+      </c>
+      <c r="FM28" t="n">
+        <v>33</v>
+      </c>
+      <c r="FN28"/>
+      <c r="FO28"/>
+      <c r="FP28"/>
+      <c r="FQ28"/>
+      <c r="FR28" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS28" t="n">
+        <v>300</v>
+      </c>
+      <c r="FT28" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU28" t="n">
+        <v>139</v>
+      </c>
+      <c r="FV28" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW28" t="n">
+        <v>144</v>
+      </c>
+      <c r="FX28" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY28" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>635</v>
+        <v>681</v>
       </c>
       <c r="B29" t="s">
-        <v>636</v>
+        <v>682</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>637</v>
+        <v>683</v>
       </c>
       <c r="F29" t="s">
-        <v>638</v>
+        <v>684</v>
       </c>
       <c r="G29"/>
       <c r="H29" t="s">
-        <v>639</v>
+        <v>685</v>
       </c>
       <c r="I29" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J29" t="s">
-        <v>640</v>
+        <v>686</v>
       </c>
       <c r="K29" t="s">
-        <v>641</v>
+        <v>687</v>
       </c>
       <c r="L29" t="s">
-        <v>642</v>
+        <v>688</v>
       </c>
       <c r="M29" t="s">
-        <v>643</v>
+        <v>689</v>
       </c>
       <c r="N29" t="s">
-        <v>644</v>
+        <v>690</v>
       </c>
       <c r="O29" t="s">
-        <v>645</v>
+        <v>691</v>
       </c>
       <c r="P29" t="s">
-        <v>641</v>
+        <v>687</v>
       </c>
       <c r="Q29" t="s">
-        <v>642</v>
+        <v>688</v>
       </c>
       <c r="R29"/>
       <c r="S29" t="s">
-        <v>644</v>
+        <v>690</v>
       </c>
       <c r="T29" t="s">
-        <v>645</v>
+        <v>691</v>
       </c>
       <c r="U29" t="s">
-        <v>646</v>
+        <v>692</v>
       </c>
       <c r="V29" t="s">
-        <v>647</v>
+        <v>693</v>
       </c>
       <c r="W29"/>
       <c r="X29" t="s">
-        <v>644</v>
+        <v>690</v>
       </c>
       <c r="Y29" t="s">
-        <v>648</v>
+        <v>694</v>
       </c>
       <c r="Z29" t="s">
-        <v>649</v>
+        <v>695</v>
       </c>
       <c r="AA29" t="s">
-        <v>642</v>
+        <v>688</v>
       </c>
       <c r="AB29"/>
       <c r="AC29" t="s">
-        <v>644</v>
+        <v>690</v>
       </c>
       <c r="AD29" t="s">
-        <v>650</v>
+        <v>696</v>
       </c>
       <c r="AE29" t="s">
-        <v>651</v>
+        <v>697</v>
       </c>
       <c r="AF29" t="s">
-        <v>642</v>
+        <v>688</v>
       </c>
       <c r="AG29"/>
       <c r="AH29" t="s">
-        <v>644</v>
+        <v>690</v>
       </c>
       <c r="AI29" t="s">
-        <v>652</v>
+        <v>698</v>
       </c>
       <c r="AJ29" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AK29" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AL29" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AM29" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AN29" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="AO29" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AP29" t="n">
         <v>0.08</v>
@@ -13151,119 +16661,257 @@
       </c>
       <c r="EE29" t="n">
         <v>8703</v>
+      </c>
+      <c r="EF29" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG29" t="n">
+        <v>26</v>
+      </c>
+      <c r="EH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER29" t="n">
+        <v>5</v>
+      </c>
+      <c r="ES29" t="n">
+        <v>99</v>
+      </c>
+      <c r="ET29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX29" t="n">
+        <v>4</v>
+      </c>
+      <c r="EY29" t="n">
+        <v>64</v>
+      </c>
+      <c r="EZ29" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA29" t="n">
+        <v>11</v>
+      </c>
+      <c r="FB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR29" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS29" t="n">
+        <v>10</v>
+      </c>
+      <c r="FT29" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU29" t="n">
+        <v>10</v>
+      </c>
+      <c r="FV29" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW29" t="n">
+        <v>10</v>
+      </c>
+      <c r="FX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>653</v>
+        <v>699</v>
       </c>
       <c r="B30" t="s">
-        <v>654</v>
+        <v>700</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="s">
-        <v>655</v>
+        <v>701</v>
       </c>
       <c r="F30" t="s">
-        <v>656</v>
+        <v>702</v>
       </c>
       <c r="G30"/>
       <c r="H30" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="I30" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J30" t="s">
-        <v>657</v>
+        <v>703</v>
       </c>
       <c r="K30" t="s">
-        <v>658</v>
+        <v>704</v>
       </c>
       <c r="L30" t="s">
-        <v>659</v>
+        <v>705</v>
       </c>
       <c r="M30" t="s">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="N30" t="s">
-        <v>660</v>
+        <v>706</v>
       </c>
       <c r="O30" t="s">
-        <v>661</v>
+        <v>707</v>
       </c>
       <c r="P30" t="s">
-        <v>662</v>
+        <v>708</v>
       </c>
       <c r="Q30" t="s">
-        <v>659</v>
+        <v>705</v>
       </c>
       <c r="R30" t="s">
-        <v>663</v>
+        <v>709</v>
       </c>
       <c r="S30"/>
       <c r="T30" t="s">
-        <v>661</v>
+        <v>707</v>
       </c>
       <c r="U30" t="s">
-        <v>664</v>
+        <v>710</v>
       </c>
       <c r="V30" t="s">
-        <v>659</v>
+        <v>705</v>
       </c>
       <c r="W30" t="s">
-        <v>663</v>
+        <v>709</v>
       </c>
       <c r="X30"/>
       <c r="Y30" t="s">
-        <v>665</v>
+        <v>711</v>
       </c>
       <c r="Z30" t="s">
-        <v>666</v>
+        <v>712</v>
       </c>
       <c r="AA30" t="s">
-        <v>659</v>
+        <v>705</v>
       </c>
       <c r="AB30" t="s">
-        <v>663</v>
+        <v>709</v>
       </c>
       <c r="AC30"/>
       <c r="AD30" t="s">
-        <v>661</v>
+        <v>707</v>
       </c>
       <c r="AE30" t="s">
-        <v>667</v>
+        <v>713</v>
       </c>
       <c r="AF30" t="s">
-        <v>659</v>
+        <v>705</v>
       </c>
       <c r="AG30" t="s">
-        <v>663</v>
+        <v>709</v>
       </c>
       <c r="AH30"/>
       <c r="AI30" t="s">
-        <v>668</v>
+        <v>714</v>
       </c>
       <c r="AJ30" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AK30" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AL30" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AM30" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AN30" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="AO30" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AP30" t="n">
         <v>2.47</v>
@@ -13479,63 +17127,169 @@
       <c r="EE30" t="n">
         <v>66250</v>
       </c>
+      <c r="EF30" t="n">
+        <v>4</v>
+      </c>
+      <c r="EG30" t="n">
+        <v>83</v>
+      </c>
+      <c r="EH30"/>
+      <c r="EI30"/>
+      <c r="EJ30" t="n">
+        <v>5</v>
+      </c>
+      <c r="EK30" t="n">
+        <v>393</v>
+      </c>
+      <c r="EL30"/>
+      <c r="EM30"/>
+      <c r="EN30"/>
+      <c r="EO30"/>
+      <c r="EP30" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ30" t="n">
+        <v>14</v>
+      </c>
+      <c r="ER30" t="n">
+        <v>12</v>
+      </c>
+      <c r="ES30" t="n">
+        <v>421</v>
+      </c>
+      <c r="ET30" t="n">
+        <v>3</v>
+      </c>
+      <c r="EU30" t="n">
+        <v>32</v>
+      </c>
+      <c r="EV30"/>
+      <c r="EW30"/>
+      <c r="EX30" t="n">
+        <v>10</v>
+      </c>
+      <c r="EY30" t="n">
+        <v>436</v>
+      </c>
+      <c r="EZ30"/>
+      <c r="FA30"/>
+      <c r="FB30"/>
+      <c r="FC30"/>
+      <c r="FD30"/>
+      <c r="FE30"/>
+      <c r="FF30" t="n">
+        <v>2</v>
+      </c>
+      <c r="FG30" t="n">
+        <v>24</v>
+      </c>
+      <c r="FH30" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI30" t="n">
+        <v>59</v>
+      </c>
+      <c r="FJ30" t="n">
+        <v>5</v>
+      </c>
+      <c r="FK30" t="n">
+        <v>80</v>
+      </c>
+      <c r="FL30" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM30" t="n">
+        <v>25</v>
+      </c>
+      <c r="FN30"/>
+      <c r="FO30"/>
+      <c r="FP30" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ30" t="n">
+        <v>96</v>
+      </c>
+      <c r="FR30" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS30" t="n">
+        <v>147</v>
+      </c>
+      <c r="FT30" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU30" t="n">
+        <v>147</v>
+      </c>
+      <c r="FV30" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW30" t="n">
+        <v>36</v>
+      </c>
+      <c r="FX30" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY30" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>669</v>
+        <v>715</v>
       </c>
       <c r="B31" t="s">
-        <v>670</v>
+        <v>716</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D31" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="E31" t="s">
-        <v>671</v>
+        <v>717</v>
       </c>
       <c r="F31" t="s">
-        <v>672</v>
+        <v>718</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
-        <v>673</v>
+        <v>719</v>
       </c>
       <c r="I31" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J31" t="s">
-        <v>674</v>
+        <v>720</v>
       </c>
       <c r="K31" t="s">
-        <v>675</v>
+        <v>721</v>
       </c>
       <c r="L31" t="s">
-        <v>676</v>
+        <v>722</v>
       </c>
       <c r="M31"/>
       <c r="N31" t="s">
-        <v>677</v>
+        <v>723</v>
       </c>
       <c r="O31" t="s">
-        <v>678</v>
+        <v>724</v>
       </c>
       <c r="P31" t="s">
-        <v>675</v>
+        <v>721</v>
       </c>
       <c r="Q31" t="s">
-        <v>679</v>
+        <v>725</v>
       </c>
       <c r="R31" t="s">
-        <v>680</v>
+        <v>726</v>
       </c>
       <c r="S31" t="s">
-        <v>677</v>
+        <v>723</v>
       </c>
       <c r="T31" t="s">
-        <v>678</v>
+        <v>724</v>
       </c>
       <c r="U31"/>
       <c r="V31"/>
@@ -13543,50 +17297,50 @@
       <c r="X31"/>
       <c r="Y31"/>
       <c r="Z31" t="s">
-        <v>681</v>
+        <v>727</v>
       </c>
       <c r="AA31" t="s">
-        <v>679</v>
+        <v>725</v>
       </c>
       <c r="AB31" t="s">
-        <v>682</v>
+        <v>728</v>
       </c>
       <c r="AC31" t="s">
-        <v>677</v>
+        <v>723</v>
       </c>
       <c r="AD31" t="s">
-        <v>683</v>
+        <v>729</v>
       </c>
       <c r="AE31" t="s">
-        <v>684</v>
+        <v>730</v>
       </c>
       <c r="AF31" t="s">
-        <v>679</v>
+        <v>725</v>
       </c>
       <c r="AG31"/>
       <c r="AH31" t="s">
-        <v>677</v>
+        <v>723</v>
       </c>
       <c r="AI31" t="s">
-        <v>685</v>
+        <v>731</v>
       </c>
       <c r="AJ31" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AK31" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AL31" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AM31" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AN31" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="AO31" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AP31" t="n">
         <v>0</v>
@@ -13781,7 +17535,7 @@
         <v>0</v>
       </c>
       <c r="DB31" t="s">
-        <v>686</v>
+        <v>732</v>
       </c>
       <c r="DC31" t="n">
         <v>1.23</v>
@@ -13865,117 +17619,255 @@
       </c>
       <c r="EE31" t="n">
         <v>69464</v>
+      </c>
+      <c r="EF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ31" t="n">
+        <v>2</v>
+      </c>
+      <c r="EK31" t="n">
+        <v>6</v>
+      </c>
+      <c r="EL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER31" t="n">
+        <v>3</v>
+      </c>
+      <c r="ES31" t="n">
+        <v>39</v>
+      </c>
+      <c r="ET31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX31" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY31" t="n">
+        <v>6</v>
+      </c>
+      <c r="EZ31" t="n">
+        <v>2</v>
+      </c>
+      <c r="FA31" t="n">
+        <v>12</v>
+      </c>
+      <c r="FB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF31" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG31" t="n">
+        <v>12</v>
+      </c>
+      <c r="FH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ31" t="n">
+        <v>6</v>
+      </c>
+      <c r="FK31" t="n">
+        <v>66</v>
+      </c>
+      <c r="FL31" t="n">
+        <v>20</v>
+      </c>
+      <c r="FM31" t="n">
+        <v>269</v>
+      </c>
+      <c r="FN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR31" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS31" t="n">
+        <v>25</v>
+      </c>
+      <c r="FT31" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU31" t="n">
+        <v>18</v>
+      </c>
+      <c r="FV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>687</v>
+        <v>733</v>
       </c>
       <c r="B32" t="s">
-        <v>688</v>
+        <v>734</v>
       </c>
       <c r="C32" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D32" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="E32" t="s">
-        <v>689</v>
+        <v>735</v>
       </c>
       <c r="F32" t="s">
-        <v>690</v>
+        <v>736</v>
       </c>
       <c r="G32"/>
       <c r="H32" t="s">
-        <v>691</v>
+        <v>737</v>
       </c>
       <c r="I32" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J32" t="s">
-        <v>692</v>
+        <v>738</v>
       </c>
       <c r="K32" t="s">
-        <v>693</v>
+        <v>739</v>
       </c>
       <c r="L32" t="s">
-        <v>694</v>
+        <v>740</v>
       </c>
       <c r="M32"/>
       <c r="N32" t="s">
-        <v>695</v>
+        <v>741</v>
       </c>
       <c r="O32" t="s">
-        <v>696</v>
+        <v>742</v>
       </c>
       <c r="P32" t="s">
-        <v>693</v>
+        <v>739</v>
       </c>
       <c r="Q32" t="s">
-        <v>694</v>
+        <v>740</v>
       </c>
       <c r="R32"/>
       <c r="S32" t="s">
-        <v>695</v>
+        <v>741</v>
       </c>
       <c r="T32" t="s">
-        <v>696</v>
+        <v>742</v>
       </c>
       <c r="U32" t="s">
-        <v>697</v>
+        <v>743</v>
       </c>
       <c r="V32" t="s">
-        <v>698</v>
+        <v>744</v>
       </c>
       <c r="W32"/>
       <c r="X32"/>
       <c r="Y32" t="s">
-        <v>699</v>
+        <v>745</v>
       </c>
       <c r="Z32" t="s">
-        <v>700</v>
+        <v>746</v>
       </c>
       <c r="AA32" t="s">
-        <v>701</v>
+        <v>747</v>
       </c>
       <c r="AB32"/>
       <c r="AC32" t="s">
-        <v>695</v>
+        <v>741</v>
       </c>
       <c r="AD32" t="s">
-        <v>702</v>
+        <v>748</v>
       </c>
       <c r="AE32" t="s">
-        <v>703</v>
+        <v>749</v>
       </c>
       <c r="AF32" t="s">
-        <v>704</v>
+        <v>750</v>
       </c>
       <c r="AG32"/>
       <c r="AH32" t="s">
-        <v>695</v>
+        <v>741</v>
       </c>
       <c r="AI32" t="s">
-        <v>705</v>
+        <v>751</v>
       </c>
       <c r="AJ32" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AK32" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AL32" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AM32" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AN32" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="AO32" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AP32" t="n">
         <v>2.43</v>
@@ -14170,7 +18062,7 @@
         <v>0</v>
       </c>
       <c r="DB32" t="s">
-        <v>706</v>
+        <v>752</v>
       </c>
       <c r="DC32" t="n">
         <v>1.25</v>
@@ -14225,7 +18117,7 @@
         <v>5779</v>
       </c>
       <c r="DU32" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="DV32" t="n">
         <v>2</v>
@@ -14256,127 +18148,265 @@
       </c>
       <c r="EE32" t="n">
         <v>90457</v>
+      </c>
+      <c r="EF32" t="n">
+        <v>3</v>
+      </c>
+      <c r="EG32" t="n">
+        <v>70</v>
+      </c>
+      <c r="EH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ32" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK32" t="n">
+        <v>12</v>
+      </c>
+      <c r="EL32" t="n">
+        <v>4</v>
+      </c>
+      <c r="EM32" t="n">
+        <v>320</v>
+      </c>
+      <c r="EN32" t="n">
+        <v>5</v>
+      </c>
+      <c r="EO32" t="n">
+        <v>168</v>
+      </c>
+      <c r="EP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER32" t="n">
+        <v>7</v>
+      </c>
+      <c r="ES32" t="n">
+        <v>488</v>
+      </c>
+      <c r="ET32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX32" t="n">
+        <v>30</v>
+      </c>
+      <c r="EY32" t="n">
+        <v>740</v>
+      </c>
+      <c r="EZ32" t="n">
+        <v>9</v>
+      </c>
+      <c r="FA32" t="n">
+        <v>211</v>
+      </c>
+      <c r="FB32" t="n">
+        <v>3</v>
+      </c>
+      <c r="FC32" t="n">
+        <v>114</v>
+      </c>
+      <c r="FD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF32" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG32" t="n">
+        <v>51</v>
+      </c>
+      <c r="FH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL32" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM32" t="n">
+        <v>12</v>
+      </c>
+      <c r="FN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR32" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS32" t="n">
+        <v>29</v>
+      </c>
+      <c r="FT32" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU32" t="n">
+        <v>6</v>
+      </c>
+      <c r="FV32" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW32" t="n">
+        <v>26</v>
+      </c>
+      <c r="FX32" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY32" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>707</v>
+        <v>753</v>
       </c>
       <c r="B33" t="s">
-        <v>708</v>
+        <v>754</v>
       </c>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="s">
-        <v>709</v>
+        <v>755</v>
       </c>
       <c r="F33" t="s">
-        <v>710</v>
+        <v>756</v>
       </c>
       <c r="G33"/>
       <c r="H33" t="s">
-        <v>711</v>
+        <v>757</v>
       </c>
       <c r="I33" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J33" t="s">
-        <v>712</v>
+        <v>758</v>
       </c>
       <c r="K33" t="s">
-        <v>713</v>
+        <v>759</v>
       </c>
       <c r="L33" t="s">
-        <v>714</v>
+        <v>760</v>
       </c>
       <c r="M33" t="s">
-        <v>715</v>
+        <v>761</v>
       </c>
       <c r="N33" t="s">
-        <v>716</v>
+        <v>762</v>
       </c>
       <c r="O33" t="s">
-        <v>717</v>
+        <v>763</v>
       </c>
       <c r="P33" t="s">
-        <v>713</v>
+        <v>759</v>
       </c>
       <c r="Q33" t="s">
-        <v>714</v>
+        <v>760</v>
       </c>
       <c r="R33" t="s">
-        <v>715</v>
+        <v>761</v>
       </c>
       <c r="S33" t="s">
-        <v>716</v>
+        <v>762</v>
       </c>
       <c r="T33" t="s">
-        <v>717</v>
+        <v>763</v>
       </c>
       <c r="U33" t="s">
-        <v>718</v>
+        <v>764</v>
       </c>
       <c r="V33" t="s">
-        <v>714</v>
+        <v>760</v>
       </c>
       <c r="W33" t="s">
-        <v>719</v>
+        <v>765</v>
       </c>
       <c r="X33" t="s">
-        <v>716</v>
+        <v>762</v>
       </c>
       <c r="Y33" t="s">
-        <v>720</v>
+        <v>766</v>
       </c>
       <c r="Z33" t="s">
-        <v>721</v>
+        <v>767</v>
       </c>
       <c r="AA33" t="s">
-        <v>714</v>
+        <v>760</v>
       </c>
       <c r="AB33" t="s">
-        <v>722</v>
+        <v>768</v>
       </c>
       <c r="AC33" t="s">
-        <v>716</v>
+        <v>762</v>
       </c>
       <c r="AD33" t="s">
-        <v>723</v>
+        <v>769</v>
       </c>
       <c r="AE33" t="s">
-        <v>724</v>
+        <v>770</v>
       </c>
       <c r="AF33" t="s">
-        <v>714</v>
+        <v>760</v>
       </c>
       <c r="AG33" t="s">
-        <v>725</v>
+        <v>771</v>
       </c>
       <c r="AH33" t="s">
-        <v>726</v>
+        <v>772</v>
       </c>
       <c r="AI33" t="s">
-        <v>720</v>
+        <v>766</v>
       </c>
       <c r="AJ33" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AK33" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AL33" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AM33" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AN33" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="AO33" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AP33" t="n">
         <v>0.72</v>
@@ -14558,7 +18588,7 @@
         <v>1759</v>
       </c>
       <c r="DU33" t="s">
-        <v>727</v>
+        <v>773</v>
       </c>
       <c r="DV33" t="n">
         <v>5.6</v>
@@ -14588,112 +18618,218 @@
       <c r="EE33" t="n">
         <v>81607</v>
       </c>
+      <c r="EF33"/>
+      <c r="EG33"/>
+      <c r="EH33"/>
+      <c r="EI33"/>
+      <c r="EJ33" t="n">
+        <v>3</v>
+      </c>
+      <c r="EK33" t="n">
+        <v>492</v>
+      </c>
+      <c r="EL33" t="n">
+        <v>2</v>
+      </c>
+      <c r="EM33" t="n">
+        <v>115</v>
+      </c>
+      <c r="EN33" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO33" t="n">
+        <v>85</v>
+      </c>
+      <c r="EP33" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ33" t="n">
+        <v>38</v>
+      </c>
+      <c r="ER33" t="n">
+        <v>15</v>
+      </c>
+      <c r="ES33" t="n">
+        <v>990</v>
+      </c>
+      <c r="ET33" t="n">
+        <v>3</v>
+      </c>
+      <c r="EU33" t="n">
+        <v>359</v>
+      </c>
+      <c r="EV33"/>
+      <c r="EW33"/>
+      <c r="EX33" t="n">
+        <v>32</v>
+      </c>
+      <c r="EY33" t="n">
+        <v>945</v>
+      </c>
+      <c r="EZ33" t="n">
+        <v>4</v>
+      </c>
+      <c r="FA33" t="n">
+        <v>77</v>
+      </c>
+      <c r="FB33"/>
+      <c r="FC33"/>
+      <c r="FD33"/>
+      <c r="FE33"/>
+      <c r="FF33" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG33" t="n">
+        <v>145</v>
+      </c>
+      <c r="FH33" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI33" t="n">
+        <v>36</v>
+      </c>
+      <c r="FJ33" t="n">
+        <v>7</v>
+      </c>
+      <c r="FK33" t="n">
+        <v>180</v>
+      </c>
+      <c r="FL33" t="n">
+        <v>4</v>
+      </c>
+      <c r="FM33" t="n">
+        <v>136</v>
+      </c>
+      <c r="FN33"/>
+      <c r="FO33"/>
+      <c r="FP33"/>
+      <c r="FQ33"/>
+      <c r="FR33" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS33" t="n">
+        <v>168</v>
+      </c>
+      <c r="FT33" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU33" t="n">
+        <v>36</v>
+      </c>
+      <c r="FV33" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW33" t="n">
+        <v>224</v>
+      </c>
+      <c r="FX33"/>
+      <c r="FY33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>728</v>
+        <v>774</v>
       </c>
       <c r="B34" t="s">
-        <v>729</v>
+        <v>775</v>
       </c>
       <c r="C34" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="E34" t="s">
-        <v>730</v>
+        <v>776</v>
       </c>
       <c r="F34" t="s">
-        <v>731</v>
+        <v>777</v>
       </c>
       <c r="G34"/>
       <c r="H34" t="s">
-        <v>732</v>
+        <v>778</v>
       </c>
       <c r="I34" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J34" t="s">
-        <v>733</v>
+        <v>779</v>
       </c>
       <c r="K34" t="s">
-        <v>734</v>
+        <v>780</v>
       </c>
       <c r="L34" t="s">
-        <v>735</v>
+        <v>781</v>
       </c>
       <c r="M34"/>
       <c r="N34" t="s">
-        <v>736</v>
+        <v>782</v>
       </c>
       <c r="O34" t="s">
-        <v>737</v>
+        <v>783</v>
       </c>
       <c r="P34" t="s">
-        <v>738</v>
+        <v>784</v>
       </c>
       <c r="Q34" t="s">
-        <v>739</v>
+        <v>785</v>
       </c>
       <c r="R34"/>
       <c r="S34" t="s">
-        <v>740</v>
+        <v>786</v>
       </c>
       <c r="T34" t="s">
-        <v>737</v>
+        <v>783</v>
       </c>
       <c r="U34" t="s">
-        <v>741</v>
+        <v>787</v>
       </c>
       <c r="V34" t="s">
-        <v>742</v>
+        <v>788</v>
       </c>
       <c r="W34"/>
       <c r="X34"/>
       <c r="Y34" t="s">
-        <v>737</v>
+        <v>783</v>
       </c>
       <c r="Z34" t="s">
-        <v>743</v>
+        <v>789</v>
       </c>
       <c r="AA34" t="s">
-        <v>742</v>
+        <v>788</v>
       </c>
       <c r="AB34"/>
       <c r="AC34"/>
       <c r="AD34" t="s">
-        <v>737</v>
+        <v>783</v>
       </c>
       <c r="AE34" t="s">
-        <v>744</v>
+        <v>790</v>
       </c>
       <c r="AF34" t="s">
-        <v>745</v>
+        <v>791</v>
       </c>
       <c r="AG34"/>
       <c r="AH34"/>
       <c r="AI34" t="s">
-        <v>746</v>
+        <v>792</v>
       </c>
       <c r="AJ34" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AK34" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AL34" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AM34" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AN34" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="AO34" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AP34" t="n">
         <v>0.1</v>
@@ -14827,7 +18963,7 @@
       <c r="DS34"/>
       <c r="DT34"/>
       <c r="DU34" t="s">
-        <v>747</v>
+        <v>793</v>
       </c>
       <c r="DV34" t="n">
         <v>0.76</v>
@@ -14857,108 +18993,182 @@
       <c r="EE34" t="n">
         <v>7604</v>
       </c>
+      <c r="EF34" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG34" t="n">
+        <v>41</v>
+      </c>
+      <c r="EH34"/>
+      <c r="EI34"/>
+      <c r="EJ34"/>
+      <c r="EK34"/>
+      <c r="EL34"/>
+      <c r="EM34"/>
+      <c r="EN34"/>
+      <c r="EO34"/>
+      <c r="EP34"/>
+      <c r="EQ34"/>
+      <c r="ER34" t="n">
+        <v>4</v>
+      </c>
+      <c r="ES34" t="n">
+        <v>71</v>
+      </c>
+      <c r="ET34"/>
+      <c r="EU34"/>
+      <c r="EV34"/>
+      <c r="EW34"/>
+      <c r="EX34" t="n">
+        <v>4</v>
+      </c>
+      <c r="EY34" t="n">
+        <v>163</v>
+      </c>
+      <c r="EZ34" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA34" t="n">
+        <v>67</v>
+      </c>
+      <c r="FB34" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC34" t="n">
+        <v>8</v>
+      </c>
+      <c r="FD34"/>
+      <c r="FE34"/>
+      <c r="FF34"/>
+      <c r="FG34"/>
+      <c r="FH34"/>
+      <c r="FI34"/>
+      <c r="FJ34"/>
+      <c r="FK34"/>
+      <c r="FL34"/>
+      <c r="FM34"/>
+      <c r="FN34"/>
+      <c r="FO34"/>
+      <c r="FP34"/>
+      <c r="FQ34"/>
+      <c r="FR34" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS34" t="n">
+        <v>124</v>
+      </c>
+      <c r="FT34" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU34" t="n">
+        <v>41</v>
+      </c>
+      <c r="FV34"/>
+      <c r="FW34"/>
+      <c r="FX34"/>
+      <c r="FY34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>748</v>
+        <v>794</v>
       </c>
       <c r="B35" t="s">
-        <v>749</v>
+        <v>795</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D35" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="E35" t="s">
-        <v>750</v>
+        <v>796</v>
       </c>
       <c r="F35" t="s">
-        <v>751</v>
+        <v>797</v>
       </c>
       <c r="G35"/>
       <c r="H35" t="s">
-        <v>752</v>
+        <v>798</v>
       </c>
       <c r="I35" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="J35" t="s">
-        <v>753</v>
+        <v>799</v>
       </c>
       <c r="K35" t="s">
-        <v>754</v>
+        <v>800</v>
       </c>
       <c r="L35" t="s">
-        <v>755</v>
+        <v>801</v>
       </c>
       <c r="M35"/>
       <c r="N35"/>
       <c r="O35" t="s">
-        <v>756</v>
+        <v>802</v>
       </c>
       <c r="P35" t="s">
-        <v>754</v>
+        <v>800</v>
       </c>
       <c r="Q35" t="s">
-        <v>757</v>
+        <v>803</v>
       </c>
       <c r="R35"/>
       <c r="S35"/>
       <c r="T35" t="s">
-        <v>758</v>
+        <v>804</v>
       </c>
       <c r="U35" t="s">
-        <v>759</v>
+        <v>805</v>
       </c>
       <c r="V35" t="s">
-        <v>760</v>
+        <v>806</v>
       </c>
       <c r="W35"/>
       <c r="X35"/>
       <c r="Y35" t="s">
-        <v>761</v>
+        <v>807</v>
       </c>
       <c r="Z35" t="s">
-        <v>762</v>
+        <v>808</v>
       </c>
       <c r="AA35" t="s">
-        <v>757</v>
+        <v>803</v>
       </c>
       <c r="AB35"/>
       <c r="AC35"/>
       <c r="AD35" t="s">
-        <v>763</v>
+        <v>809</v>
       </c>
       <c r="AE35" t="s">
-        <v>764</v>
+        <v>810</v>
       </c>
       <c r="AF35" t="s">
-        <v>757</v>
+        <v>803</v>
       </c>
       <c r="AG35"/>
       <c r="AH35"/>
       <c r="AI35" t="s">
-        <v>765</v>
+        <v>811</v>
       </c>
       <c r="AJ35" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AK35" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AL35" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AM35" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AN35" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="AO35" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AP35" t="n">
         <v>1.87</v>
@@ -15148,6 +19358,96 @@
       <c r="EE35" t="n">
         <v>55880</v>
       </c>
+      <c r="EF35" t="n">
+        <v>2</v>
+      </c>
+      <c r="EG35" t="n">
+        <v>28</v>
+      </c>
+      <c r="EH35"/>
+      <c r="EI35"/>
+      <c r="EJ35"/>
+      <c r="EK35"/>
+      <c r="EL35"/>
+      <c r="EM35"/>
+      <c r="EN35" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO35" t="n">
+        <v>49</v>
+      </c>
+      <c r="EP35"/>
+      <c r="EQ35"/>
+      <c r="ER35" t="n">
+        <v>13</v>
+      </c>
+      <c r="ES35" t="n">
+        <v>299</v>
+      </c>
+      <c r="ET35" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU35" t="n">
+        <v>14</v>
+      </c>
+      <c r="EV35"/>
+      <c r="EW35"/>
+      <c r="EX35" t="n">
+        <v>20</v>
+      </c>
+      <c r="EY35" t="n">
+        <v>496</v>
+      </c>
+      <c r="EZ35" t="n">
+        <v>4</v>
+      </c>
+      <c r="FA35" t="n">
+        <v>76</v>
+      </c>
+      <c r="FB35" t="n">
+        <v>3</v>
+      </c>
+      <c r="FC35" t="n">
+        <v>97</v>
+      </c>
+      <c r="FD35"/>
+      <c r="FE35"/>
+      <c r="FF35"/>
+      <c r="FG35"/>
+      <c r="FH35"/>
+      <c r="FI35"/>
+      <c r="FJ35" t="n">
+        <v>4</v>
+      </c>
+      <c r="FK35" t="n">
+        <v>138</v>
+      </c>
+      <c r="FL35" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM35" t="n">
+        <v>5</v>
+      </c>
+      <c r="FN35"/>
+      <c r="FO35"/>
+      <c r="FP35"/>
+      <c r="FQ35"/>
+      <c r="FR35" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS35" t="n">
+        <v>106</v>
+      </c>
+      <c r="FT35"/>
+      <c r="FU35"/>
+      <c r="FV35" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW35" t="n">
+        <v>94</v>
+      </c>
+      <c r="FX35"/>
+      <c r="FY35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
